--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -344,7 +344,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>birth</t>
+    <t>date_of_birth</t>
   </si>
   <si>
     <t>Date of Birth</t>
@@ -789,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -892,6 +892,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2581,7 +2584,7 @@
       <c r="A33" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="29" t="s">
@@ -2591,10 +2594,10 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="37" t="s">
         <v>106</v>
       </c>
       <c r="J33" s="13"/>
@@ -2650,22 +2653,22 @@
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="31" t="s">
@@ -2685,22 +2688,22 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="29" t="s">
@@ -2720,22 +2723,22 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="10" t="s">
@@ -2811,7 +2814,7 @@
       <c r="A40" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="39" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="24" t="s">
@@ -2826,7 +2829,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="12"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="39"/>
+      <c r="K40" s="40"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="14"/>
@@ -2854,7 +2857,7 @@
       <c r="A41" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="39" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -2869,7 +2872,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="39"/>
+      <c r="K41" s="40"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="14"/>
@@ -2900,7 +2903,7 @@
       <c r="B42" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="39"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="10"/>
@@ -2938,10 +2941,10 @@
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="11"/>
@@ -2949,7 +2952,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="40" t="s">
         <v>125</v>
       </c>
       <c r="L43" s="25"/>
@@ -2979,7 +2982,7 @@
       <c r="A44" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="39" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="19"/>
@@ -2990,7 +2993,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="40" t="s">
         <v>127</v>
       </c>
       <c r="L44" s="25"/>
@@ -3052,7 +3055,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="25"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="40"/>
+      <c r="O46" s="41"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
@@ -3204,7 +3207,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="13"/>
       <c r="K55" s="10"/>
-      <c r="N55" s="41"/>
+      <c r="N55" s="42"/>
       <c r="O55" s="13"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="16"/>
@@ -3221,12 +3224,12 @@
       <c r="I56" s="12"/>
       <c r="J56" s="13"/>
       <c r="K56" s="10"/>
-      <c r="N56" s="42"/>
+      <c r="N56" s="43"/>
       <c r="O56" s="13"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
-      <c r="S56" s="43"/>
+      <c r="S56" s="44"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="10"/>
@@ -3238,7 +3241,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="13"/>
       <c r="K57" s="10"/>
-      <c r="N57" s="42"/>
+      <c r="N57" s="43"/>
       <c r="O57" s="13"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
@@ -3255,7 +3258,7 @@
       <c r="I58" s="12"/>
       <c r="J58" s="13"/>
       <c r="K58" s="10"/>
-      <c r="N58" s="42"/>
+      <c r="N58" s="43"/>
       <c r="O58" s="13"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
@@ -3272,12 +3275,12 @@
       <c r="I59" s="12"/>
       <c r="J59" s="13"/>
       <c r="K59" s="10"/>
-      <c r="N59" s="42"/>
+      <c r="N59" s="43"/>
       <c r="O59" s="13"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="43"/>
+      <c r="S59" s="44"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10"/>
@@ -3289,8 +3292,8 @@
       <c r="I60" s="12"/>
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="40"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="41"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
@@ -3306,12 +3309,12 @@
       <c r="I61" s="12"/>
       <c r="J61" s="13"/>
       <c r="K61" s="10"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="44"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="45"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="43"/>
+      <c r="S61" s="44"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3323,7 +3326,7 @@
       <c r="I62" s="12"/>
       <c r="J62" s="13"/>
       <c r="K62" s="10"/>
-      <c r="N62" s="42"/>
+      <c r="N62" s="43"/>
       <c r="O62" s="13"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
@@ -3345,7 +3348,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="43"/>
+      <c r="S63" s="44"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3413,7 +3416,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
-      <c r="S67" s="43"/>
+      <c r="S67" s="44"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="10"/>
@@ -3511,7 +3514,7 @@
       <c r="J73" s="13"/>
       <c r="K73" s="10"/>
       <c r="N73" s="14"/>
-      <c r="O73" s="40"/>
+      <c r="O73" s="41"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="17"/>
@@ -3527,12 +3530,12 @@
       <c r="I74" s="12"/>
       <c r="J74" s="13"/>
       <c r="K74" s="10"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="44"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="45"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="17"/>
-      <c r="S74" s="43"/>
+      <c r="S74" s="44"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="10"/>
@@ -7310,13 +7313,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8"/>
@@ -7339,13 +7342,13 @@
       <c r="U1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="17"/>
@@ -7368,13 +7371,13 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="17"/>
@@ -7397,13 +7400,13 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="17"/>
@@ -7426,13 +7429,13 @@
       <c r="U4" s="10"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>137</v>
       </c>
       <c r="D5" s="17"/>
@@ -7455,13 +7458,13 @@
       <c r="U5" s="10"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="17"/>
@@ -7484,13 +7487,13 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>140</v>
       </c>
       <c r="D7" s="17"/>
@@ -7516,10 +7519,10 @@
       <c r="A8" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D8" s="17"/>
@@ -7545,10 +7548,10 @@
       <c r="A9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>146</v>
       </c>
       <c r="D9" s="17"/>
@@ -7574,10 +7577,10 @@
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="17"/>
@@ -7603,10 +7606,10 @@
       <c r="A11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="50" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="17"/>
@@ -7632,10 +7635,10 @@
       <c r="A12" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="50" t="s">
         <v>152</v>
       </c>
       <c r="D12" s="17"/>
@@ -7690,10 +7693,10 @@
       <c r="A14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="17"/>
@@ -7719,10 +7722,10 @@
       <c r="A15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="50" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="17"/>
@@ -7748,10 +7751,10 @@
       <c r="A16" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="17"/>
@@ -7777,10 +7780,10 @@
       <c r="A17" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="50" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="17"/>
@@ -8181,8 +8184,8 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="25"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="17"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -8204,8 +8207,8 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="25"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="17"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -8227,8 +8230,8 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="25"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="17"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -13366,7 +13369,7 @@
       <c r="E1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>191</v>
       </c>
       <c r="G1" s="10"/>
@@ -13397,9 +13400,9 @@
       <c r="B2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="53" t="str">
+      <c r="C2" s="54" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-07-19_04-01</v>
+        <v>2022-07-19_10-16</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>193</v>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="180">
   <si>
     <t>type</t>
   </si>
@@ -332,15 +332,6 @@
     <t>Is it okay to leave a message on your cell phone?</t>
   </si>
   <si>
-    <t>select_one roles</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -465,45 +456,6 @@
   </si>
   <si>
     <t>Date unknown</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>chw</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
-    <t>chw_supervisor</t>
-  </si>
-  <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>Facility Manager</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>place_type</t>
@@ -2558,21 +2510,28 @@
       <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="29" t="s">
         <v>101</v>
       </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="I32" s="12"/>
+      <c r="H32" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="25"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="14"/>
       <c r="O32" s="13"/>
       <c r="P32" s="15"/>
@@ -2581,28 +2540,23 @@
       <c r="S32" s="18"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>103</v>
+      <c r="A33" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="37" t="s">
-        <v>106</v>
-      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="25"/>
-      <c r="M33" s="10"/>
+      <c r="K33" s="10"/>
       <c r="N33" s="14"/>
       <c r="O33" s="13"/>
       <c r="P33" s="15"/>
@@ -2612,7 +2566,7 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>107</v>
@@ -2620,23 +2574,33 @@
       <c r="C34" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="10"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -2671,7 +2635,7 @@
       <c r="AA35" s="38"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="29" t="s">
@@ -2706,87 +2670,95 @@
       <c r="AA36" s="38"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="C37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="25"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="25"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H38" s="25"/>
       <c r="I38" s="12"/>
       <c r="J38" s="13"/>
       <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="14"/>
       <c r="O38" s="13"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>119</v>
+      <c r="B39" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="25"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="25"/>
+      <c r="K39" s="40"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
       <c r="N39" s="14"/>
@@ -2815,14 +2787,14 @@
         <v>46</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="10" t="s">
         <v>44</v>
       </c>
@@ -2854,25 +2826,23 @@
       <c r="AG40" s="25"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="19"/>
+      <c r="A41" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="40"/>
+      <c r="K41" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="14"/>
@@ -2900,19 +2870,19 @@
       <c r="A42" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>122</v>
+      <c r="B42" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="C42" s="40"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="25" t="s">
-        <v>123</v>
+      <c r="K42" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -2942,18 +2912,18 @@
         <v>35</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="40"/>
+        <v>123</v>
+      </c>
+      <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
       <c r="K43" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -2979,45 +2949,25 @@
       <c r="AG43" s="25"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="A44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
+      <c r="K44" s="25"/>
       <c r="N44" s="14"/>
       <c r="O44" s="13"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="25" t="s">
@@ -3034,28 +2984,24 @@
       <c r="J45" s="13"/>
       <c r="K45" s="25"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="13"/>
+      <c r="O45" s="41"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="25"/>
+      <c r="K46" s="10"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="41"/>
+      <c r="O46" s="13"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
@@ -3190,7 +3136,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="13"/>
       <c r="K54" s="10"/>
-      <c r="N54" s="14"/>
+      <c r="N54" s="42"/>
       <c r="O54" s="13"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="16"/>
@@ -3207,12 +3153,12 @@
       <c r="I55" s="12"/>
       <c r="J55" s="13"/>
       <c r="K55" s="10"/>
-      <c r="N55" s="42"/>
+      <c r="N55" s="43"/>
       <c r="O55" s="13"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="17"/>
-      <c r="S55" s="18"/>
+      <c r="S55" s="44"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="10"/>
@@ -3229,7 +3175,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
-      <c r="S56" s="44"/>
+      <c r="S56" s="18"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="10"/>
@@ -3263,7 +3209,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="18"/>
+      <c r="S58" s="44"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="10"/>
@@ -3276,11 +3222,11 @@
       <c r="J59" s="13"/>
       <c r="K59" s="10"/>
       <c r="N59" s="43"/>
-      <c r="O59" s="13"/>
+      <c r="O59" s="41"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="44"/>
+      <c r="S59" s="18"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10"/>
@@ -3293,11 +3239,11 @@
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
       <c r="N60" s="43"/>
-      <c r="O60" s="41"/>
+      <c r="O60" s="45"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="44"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="10"/>
@@ -3310,11 +3256,11 @@
       <c r="J61" s="13"/>
       <c r="K61" s="10"/>
       <c r="N61" s="43"/>
-      <c r="O61" s="45"/>
+      <c r="O61" s="13"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="44"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3326,12 +3272,12 @@
       <c r="I62" s="12"/>
       <c r="J62" s="13"/>
       <c r="K62" s="10"/>
-      <c r="N62" s="43"/>
+      <c r="N62" s="14"/>
       <c r="O62" s="13"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="18"/>
+      <c r="S62" s="44"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10"/>
@@ -3348,7 +3294,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="44"/>
+      <c r="S63" s="18"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3399,7 +3345,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="18"/>
+      <c r="S66" s="44"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="10"/>
@@ -3416,7 +3362,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
-      <c r="S67" s="44"/>
+      <c r="S67" s="18"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="10"/>
@@ -3497,7 +3443,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="10"/>
       <c r="N72" s="14"/>
-      <c r="O72" s="13"/>
+      <c r="O72" s="41"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
@@ -3513,12 +3459,12 @@
       <c r="I73" s="12"/>
       <c r="J73" s="13"/>
       <c r="K73" s="10"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="41"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="45"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="17"/>
-      <c r="S73" s="18"/>
+      <c r="S73" s="44"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="10"/>
@@ -3530,12 +3476,12 @@
       <c r="I74" s="12"/>
       <c r="J74" s="13"/>
       <c r="K74" s="10"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="45"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="13"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="17"/>
-      <c r="S74" s="44"/>
+      <c r="S74" s="18"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="10"/>
@@ -6444,23 +6390,7 @@
       <c r="R245" s="17"/>
       <c r="S245" s="18"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
-      <c r="A246" s="10"/>
-      <c r="B246" s="10"/>
-      <c r="C246" s="10"/>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="I246" s="12"/>
-      <c r="J246" s="13"/>
-      <c r="K246" s="10"/>
-      <c r="N246" s="14"/>
-      <c r="O246" s="13"/>
-      <c r="P246" s="15"/>
-      <c r="Q246" s="16"/>
-      <c r="R246" s="17"/>
-      <c r="S246" s="18"/>
-    </row>
+    <row r="246" ht="15.75" customHeight="1"/>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
@@ -7217,19 +7147,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A28 A30:A32 A34:A38 A45:A46">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A28 A30:A31 A33:A37 A44:A45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25 A38">
+  <conditionalFormatting sqref="A22 A25 A37">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25 A39:A44">
+  <conditionalFormatting sqref="A23:A25 A38:A43">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7244,7 +7173,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7314,7 +7243,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>1</v>
@@ -7343,13 +7272,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7372,13 +7301,13 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7401,13 +7330,13 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7430,13 +7359,13 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>136</v>
-      </c>
       <c r="C5" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7459,13 +7388,13 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7488,13 +7417,13 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7517,13 +7446,13 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7546,13 +7475,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7575,13 +7504,13 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>147</v>
-      </c>
       <c r="C10" s="50" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="10"/>
@@ -7604,13 +7533,13 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7632,14 +7561,14 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>152</v>
+      <c r="A12" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7661,14 +7590,14 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>154</v>
+      <c r="A13" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -7690,14 +7619,14 @@
       <c r="U13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>156</v>
+      <c r="A14" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -7718,15 +7647,15 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>159</v>
+    <row r="15" ht="15.0" customHeight="1">
+      <c r="A15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -7748,14 +7677,14 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>70</v>
+      <c r="A16" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -7777,14 +7706,14 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>162</v>
+      <c r="A17" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -7807,13 +7736,13 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -7836,13 +7765,13 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -7865,13 +7794,13 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -7892,15 +7821,15 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -7923,13 +7852,13 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -7952,13 +7881,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -7981,13 +7910,13 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>171</v>
-      </c>
       <c r="C24" s="29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -8009,15 +7938,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>174</v>
-      </c>
+      <c r="A25" s="25"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="17"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -8038,15 +7961,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>176</v>
-      </c>
+      <c r="A26" s="25"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="17"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -8067,15 +7984,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>178</v>
-      </c>
+      <c r="A27" s="25"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="17"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -8096,15 +8007,9 @@
       <c r="U27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="17"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -8124,16 +8029,10 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>183</v>
-      </c>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="17"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -8153,16 +8052,10 @@
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>185</v>
-      </c>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="17"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -8182,10 +8075,10 @@
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="17"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -8205,10 +8098,10 @@
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="17"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -8228,10 +8121,10 @@
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="17"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -8251,7 +8144,7 @@
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -12414,144 +12307,12 @@
       <c r="T214" s="10"/>
       <c r="U214" s="10"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="10"/>
-      <c r="P215" s="10"/>
-      <c r="Q215" s="10"/>
-      <c r="R215" s="10"/>
-      <c r="S215" s="10"/>
-      <c r="T215" s="10"/>
-      <c r="U215" s="10"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="10"/>
-      <c r="L216" s="10"/>
-      <c r="M216" s="10"/>
-      <c r="N216" s="10"/>
-      <c r="O216" s="10"/>
-      <c r="P216" s="10"/>
-      <c r="Q216" s="10"/>
-      <c r="R216" s="10"/>
-      <c r="S216" s="10"/>
-      <c r="T216" s="10"/>
-      <c r="U216" s="10"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="10"/>
-      <c r="O217" s="10"/>
-      <c r="P217" s="10"/>
-      <c r="Q217" s="10"/>
-      <c r="R217" s="10"/>
-      <c r="S217" s="10"/>
-      <c r="T217" s="10"/>
-      <c r="U217" s="10"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
-      <c r="K218" s="10"/>
-      <c r="L218" s="10"/>
-      <c r="M218" s="10"/>
-      <c r="N218" s="10"/>
-      <c r="O218" s="10"/>
-      <c r="P218" s="10"/>
-      <c r="Q218" s="10"/>
-      <c r="R218" s="10"/>
-      <c r="S218" s="10"/>
-      <c r="T218" s="10"/>
-      <c r="U218" s="10"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="10"/>
-      <c r="L219" s="10"/>
-      <c r="M219" s="10"/>
-      <c r="N219" s="10"/>
-      <c r="O219" s="10"/>
-      <c r="P219" s="10"/>
-      <c r="Q219" s="10"/>
-      <c r="R219" s="10"/>
-      <c r="S219" s="10"/>
-      <c r="T219" s="10"/>
-      <c r="U219" s="10"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-      <c r="K220" s="10"/>
-      <c r="L220" s="10"/>
-      <c r="M220" s="10"/>
-      <c r="N220" s="10"/>
-      <c r="O220" s="10"/>
-      <c r="P220" s="10"/>
-      <c r="Q220" s="10"/>
-      <c r="R220" s="10"/>
-      <c r="S220" s="10"/>
-      <c r="T220" s="10"/>
-      <c r="U220" s="10"/>
-    </row>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -13326,12 +13087,6 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13355,22 +13110,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -13398,20 +13153,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C2" s="54" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-07-19_10-16</v>
+        <v>2022-07-25_00-05</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -284,13 +284,19 @@
     <t>Cannot change</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
   <si>
     <t>aka</t>
   </si>
   <si>
-    <t>Also Known As:</t>
+    <t>Also Known as:</t>
   </si>
   <si>
     <t>integer</t>
@@ -300,6 +306,15 @@
   </si>
   <si>
     <t>Docket Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Current Address</t>
   </si>
   <si>
     <t>tel</t>
@@ -345,12 +360,6 @@
   </si>
   <si>
     <t>Date of birth cannot be in the future</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>Age in years at today’s Enrollment in the digital device:</t>
   </si>
   <si>
     <t>select_one sex</t>
@@ -741,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -827,14 +836,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2307,33 +2319,33 @@
       <c r="B27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
@@ -2342,39 +2354,39 @@
       <c r="AG27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
@@ -2383,43 +2395,39 @@
       <c r="AG28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
@@ -2428,39 +2436,39 @@
       <c r="AG29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
@@ -2469,39 +2477,43 @@
       <c r="AG30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -2510,255 +2522,269 @@
       <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="C33" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="25"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="B34" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="10"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="29" t="s">
+      <c r="C34" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="I34" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="25"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="25"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="12"/>
       <c r="J38" s="13"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
       <c r="N38" s="14"/>
       <c r="O38" s="13"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="39" t="s">
-        <v>117</v>
+      <c r="B39" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="11"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="40"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
       <c r="N39" s="14"/>
@@ -2786,22 +2812,22 @@
       <c r="A40" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>118</v>
+      <c r="B40" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="12"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="40"/>
+      <c r="K40" s="41"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="14"/>
@@ -2826,23 +2852,25 @@
       <c r="AG40" s="25"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="A41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="19"/>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="25" t="s">
-        <v>120</v>
-      </c>
+      <c r="K41" s="41"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="14"/>
@@ -2870,19 +2898,19 @@
       <c r="A42" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="B42" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="40" t="s">
-        <v>122</v>
+      <c r="K42" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -2911,19 +2939,19 @@
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="19"/>
+      <c r="B43" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="41"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="40" t="s">
-        <v>124</v>
+      <c r="K43" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -2949,25 +2977,45 @@
       <c r="AG43" s="25"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="A44" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="25"/>
+      <c r="K44" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="14"/>
       <c r="O44" s="13"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="25" t="s">
@@ -2984,24 +3032,28 @@
       <c r="J45" s="13"/>
       <c r="K45" s="25"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="41"/>
+      <c r="O45" s="13"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="10"/>
+      <c r="K46" s="25"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="13"/>
+      <c r="O46" s="42"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
@@ -3136,7 +3188,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="13"/>
       <c r="K54" s="10"/>
-      <c r="N54" s="42"/>
+      <c r="N54" s="14"/>
       <c r="O54" s="13"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="16"/>
@@ -3158,7 +3210,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="17"/>
-      <c r="S55" s="44"/>
+      <c r="S55" s="18"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="10"/>
@@ -3170,12 +3222,12 @@
       <c r="I56" s="12"/>
       <c r="J56" s="13"/>
       <c r="K56" s="10"/>
-      <c r="N56" s="43"/>
+      <c r="N56" s="44"/>
       <c r="O56" s="13"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
-      <c r="S56" s="18"/>
+      <c r="S56" s="45"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="10"/>
@@ -3187,7 +3239,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="13"/>
       <c r="K57" s="10"/>
-      <c r="N57" s="43"/>
+      <c r="N57" s="44"/>
       <c r="O57" s="13"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
@@ -3204,12 +3256,12 @@
       <c r="I58" s="12"/>
       <c r="J58" s="13"/>
       <c r="K58" s="10"/>
-      <c r="N58" s="43"/>
+      <c r="N58" s="44"/>
       <c r="O58" s="13"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="44"/>
+      <c r="S58" s="18"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="10"/>
@@ -3221,12 +3273,12 @@
       <c r="I59" s="12"/>
       <c r="J59" s="13"/>
       <c r="K59" s="10"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="41"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="13"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="45"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10"/>
@@ -3238,12 +3290,12 @@
       <c r="I60" s="12"/>
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="45"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="42"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="44"/>
+      <c r="S60" s="18"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="10"/>
@@ -3255,12 +3307,12 @@
       <c r="I61" s="12"/>
       <c r="J61" s="13"/>
       <c r="K61" s="10"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="13"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="46"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="18"/>
+      <c r="S61" s="45"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3272,12 +3324,12 @@
       <c r="I62" s="12"/>
       <c r="J62" s="13"/>
       <c r="K62" s="10"/>
-      <c r="N62" s="14"/>
+      <c r="N62" s="44"/>
       <c r="O62" s="13"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="44"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10"/>
@@ -3294,7 +3346,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="18"/>
+      <c r="S63" s="45"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3345,7 +3397,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="44"/>
+      <c r="S66" s="18"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="10"/>
@@ -3362,7 +3414,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
-      <c r="S67" s="18"/>
+      <c r="S67" s="45"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="10"/>
@@ -3443,7 +3495,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="10"/>
       <c r="N72" s="14"/>
-      <c r="O72" s="41"/>
+      <c r="O72" s="13"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
@@ -3459,12 +3511,12 @@
       <c r="I73" s="12"/>
       <c r="J73" s="13"/>
       <c r="K73" s="10"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="45"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="42"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="17"/>
-      <c r="S73" s="44"/>
+      <c r="S73" s="18"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="10"/>
@@ -3476,12 +3528,12 @@
       <c r="I74" s="12"/>
       <c r="J74" s="13"/>
       <c r="K74" s="10"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="13"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="46"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="17"/>
-      <c r="S74" s="18"/>
+      <c r="S74" s="45"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="10"/>
@@ -6390,7 +6442,23 @@
       <c r="R245" s="17"/>
       <c r="S245" s="18"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
+      <c r="I246" s="12"/>
+      <c r="J246" s="13"/>
+      <c r="K246" s="10"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="13"/>
+      <c r="P246" s="15"/>
+      <c r="Q246" s="16"/>
+      <c r="R246" s="17"/>
+      <c r="S246" s="18"/>
+    </row>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
@@ -7147,18 +7215,19 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A28 A30:A31 A33:A37 A44:A45">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A30 A32:A33 A35:A38 A45:A46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25 A37">
+  <conditionalFormatting sqref="A22 A25 A38">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25 A38:A43">
+  <conditionalFormatting sqref="A23:A25 A39:A44">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7173,7 +7242,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A34">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7213,7 +7282,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7242,13 +7311,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8"/>
@@ -7271,14 +7340,14 @@
       <c r="U1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>128</v>
+      <c r="A2" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7300,14 +7369,14 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>129</v>
+      <c r="C3" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7329,14 +7398,14 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>132</v>
+      <c r="A4" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>135</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7358,14 +7427,14 @@
       <c r="U4" s="10"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>134</v>
+      <c r="B5" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7387,14 +7456,14 @@
       <c r="U5" s="10"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>136</v>
+      <c r="A6" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>139</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7416,14 +7485,14 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>137</v>
+      <c r="A7" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7446,13 +7515,13 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>143</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7475,13 +7544,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7504,12 +7573,12 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="17"/>
@@ -7533,13 +7602,13 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7561,14 +7630,14 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>134</v>
+      <c r="A12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7590,14 +7659,14 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>132</v>
+      <c r="A13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -7619,14 +7688,14 @@
       <c r="U13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>149</v>
+      <c r="A14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -7648,14 +7717,14 @@
       <c r="U14" s="10"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>128</v>
+      <c r="C15" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -7677,14 +7746,14 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>129</v>
+      <c r="A16" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -7706,14 +7775,14 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>154</v>
+      <c r="A17" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -7735,14 +7804,14 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>156</v>
+      <c r="B18" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -7764,14 +7833,14 @@
       <c r="U18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>158</v>
+      <c r="A19" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -7793,14 +7862,14 @@
       <c r="U19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>160</v>
+      <c r="A20" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -7822,14 +7891,14 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>162</v>
+      <c r="A21" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -7851,14 +7920,14 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>164</v>
+      <c r="A22" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -7880,14 +7949,14 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>167</v>
+      <c r="A23" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -7909,14 +7978,14 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>169</v>
+      <c r="B24" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -7939,8 +8008,8 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="17"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -7962,8 +8031,8 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="17"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -7985,8 +8054,8 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="17"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -13110,22 +13179,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>178</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -13153,20 +13222,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="54" t="str">
+        <v>179</v>
+      </c>
+      <c r="C2" s="55" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-07-25_00-05</v>
+        <v>2022-08-02_04-00</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -320,7 +320,7 @@
     <t>tel</t>
   </si>
   <si>
-    <t>telephone</t>
+    <t>phone</t>
   </si>
   <si>
     <t>Cell number</t>
@@ -537,9 +537,6 @@
   </si>
   <si>
     <t>Common-Law</t>
-  </si>
-  <si>
-    <t>phone</t>
   </si>
   <si>
     <t>banger</t>
@@ -2480,7 +2477,7 @@
       <c r="A31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="30" t="s">
@@ -7950,13 +7947,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>170</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -7979,13 +7976,13 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="30" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -13179,22 +13176,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="54" t="s">
         <v>177</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>178</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -13222,20 +13219,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="55" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-02_04-00</v>
+        <v>2022-09-15_13-51</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -308,6 +308,12 @@
     <t>Docket Number</t>
   </si>
   <si>
+    <t>tsis</t>
+  </si>
+  <si>
+    <t>TSIS number</t>
+  </si>
+  <si>
     <t xml:space="preserve">string </t>
   </si>
   <si>
@@ -338,13 +344,13 @@
     <t>Type of phone</t>
   </si>
   <si>
-    <t>select_one message</t>
+    <t>select_one network</t>
   </si>
   <si>
-    <t>cell</t>
+    <t>network1</t>
   </si>
   <si>
-    <t>Is it okay to leave a message on your cell phone?</t>
+    <t>Which network do you use?</t>
   </si>
   <si>
     <t>date</t>
@@ -494,12 +500,6 @@
     <t>Intersex</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t xml:space="preserve">status </t>
   </si>
   <si>
@@ -551,6 +551,21 @@
   <si>
     <t xml:space="preserve">SmartPhone
 </t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>digicel</t>
+  </si>
+  <si>
+    <t>Digicel</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>Flow</t>
   </si>
   <si>
     <t>form_title</t>
@@ -747,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -901,6 +916,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -2401,7 +2422,9 @@
       <c r="C29" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -2434,13 +2457,13 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="32" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2475,31 +2498,27 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
       <c r="R31" s="30"/>
       <c r="S31" s="30"/>
@@ -2520,27 +2539,33 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
+      <c r="H32" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
       <c r="Q32" s="30"/>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
@@ -2560,16 +2585,16 @@
       <c r="AG32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="C33" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -2601,79 +2626,85 @@
       <c r="AG33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="C35" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="25"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="I35" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="J35" s="13"/>
+      <c r="K35" s="25"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="C36" s="30" t="s">
         <v>113</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>114</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -2701,14 +2732,14 @@
       <c r="AA36" s="39"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -2736,95 +2767,87 @@
       <c r="AA37" s="39"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="25"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="18"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F39" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
       <c r="N39" s="14"/>
       <c r="O39" s="13"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
       <c r="S39" s="18"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>120</v>
+      <c r="B40" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="11"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="12"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="14"/>
@@ -2853,14 +2876,14 @@
         <v>46</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="10" t="s">
         <v>44</v>
       </c>
@@ -2892,23 +2915,25 @@
       <c r="AG41" s="25"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="A42" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="19"/>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="25" t="s">
-        <v>123</v>
-      </c>
+      <c r="K42" s="41"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="14"/>
@@ -2936,18 +2961,18 @@
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="41"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="25" t="s">
         <v>125</v>
       </c>
       <c r="L43" s="25"/>
@@ -2980,10 +3005,10 @@
       <c r="B44" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="12"/>
@@ -3015,25 +3040,45 @@
       <c r="AG44" s="25"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="A45" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="25"/>
+      <c r="K45" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="14"/>
       <c r="O45" s="13"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="25" t="s">
@@ -3050,24 +3095,28 @@
       <c r="J46" s="13"/>
       <c r="K46" s="25"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="42"/>
+      <c r="O46" s="13"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="25"/>
       <c r="N47" s="14"/>
-      <c r="O47" s="13"/>
+      <c r="O47" s="42"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="17"/>
@@ -3202,7 +3251,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="13"/>
       <c r="K55" s="10"/>
-      <c r="N55" s="43"/>
+      <c r="N55" s="14"/>
       <c r="O55" s="13"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="16"/>
@@ -3219,12 +3268,12 @@
       <c r="I56" s="12"/>
       <c r="J56" s="13"/>
       <c r="K56" s="10"/>
-      <c r="N56" s="44"/>
+      <c r="N56" s="43"/>
       <c r="O56" s="13"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
-      <c r="S56" s="45"/>
+      <c r="S56" s="18"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="10"/>
@@ -3241,7 +3290,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
-      <c r="S57" s="18"/>
+      <c r="S57" s="45"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="10"/>
@@ -3275,7 +3324,7 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="45"/>
+      <c r="S59" s="18"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10"/>
@@ -3288,11 +3337,11 @@
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
       <c r="N60" s="44"/>
-      <c r="O60" s="42"/>
+      <c r="O60" s="13"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="45"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="10"/>
@@ -3305,11 +3354,11 @@
       <c r="J61" s="13"/>
       <c r="K61" s="10"/>
       <c r="N61" s="44"/>
-      <c r="O61" s="46"/>
+      <c r="O61" s="42"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="45"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3322,11 +3371,11 @@
       <c r="J62" s="13"/>
       <c r="K62" s="10"/>
       <c r="N62" s="44"/>
-      <c r="O62" s="13"/>
+      <c r="O62" s="46"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="18"/>
+      <c r="S62" s="45"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10"/>
@@ -3338,12 +3387,12 @@
       <c r="I63" s="12"/>
       <c r="J63" s="13"/>
       <c r="K63" s="10"/>
-      <c r="N63" s="14"/>
+      <c r="N63" s="44"/>
       <c r="O63" s="13"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="45"/>
+      <c r="S63" s="18"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3360,7 +3409,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
-      <c r="S64" s="18"/>
+      <c r="S64" s="45"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="10"/>
@@ -3411,7 +3460,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
-      <c r="S67" s="45"/>
+      <c r="S67" s="18"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="10"/>
@@ -3428,7 +3477,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
-      <c r="S68" s="18"/>
+      <c r="S68" s="45"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="10"/>
@@ -3509,7 +3558,7 @@
       <c r="J73" s="13"/>
       <c r="K73" s="10"/>
       <c r="N73" s="14"/>
-      <c r="O73" s="42"/>
+      <c r="O73" s="13"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="17"/>
@@ -3525,12 +3574,12 @@
       <c r="I74" s="12"/>
       <c r="J74" s="13"/>
       <c r="K74" s="10"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="46"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="42"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="17"/>
-      <c r="S74" s="45"/>
+      <c r="S74" s="18"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="10"/>
@@ -3542,12 +3591,12 @@
       <c r="I75" s="12"/>
       <c r="J75" s="13"/>
       <c r="K75" s="10"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="13"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="46"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="17"/>
-      <c r="S75" s="18"/>
+      <c r="S75" s="45"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="10"/>
@@ -6456,7 +6505,23 @@
       <c r="R246" s="17"/>
       <c r="S246" s="18"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+      <c r="I247" s="12"/>
+      <c r="J247" s="13"/>
+      <c r="K247" s="10"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="13"/>
+      <c r="P247" s="15"/>
+      <c r="Q247" s="16"/>
+      <c r="R247" s="17"/>
+      <c r="S247" s="18"/>
+    </row>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
     <row r="250" ht="15.75" customHeight="1"/>
@@ -7213,18 +7278,19 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A30 A32:A33 A35:A38 A45:A46">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A31 A33:A34 A36:A39 A46:A47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25 A38">
+  <conditionalFormatting sqref="A22 A25 A39">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25 A39:A44">
+  <conditionalFormatting sqref="A23:A25 A40:A45">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7239,7 +7305,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7279,7 +7345,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7309,7 +7375,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>1</v>
@@ -7338,13 +7404,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7367,13 +7433,13 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7396,13 +7462,13 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7425,13 +7491,13 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7454,13 +7520,13 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7483,13 +7549,13 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>136</v>
-      </c>
       <c r="C7" s="49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7512,13 +7578,13 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7541,13 +7607,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7570,10 +7636,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>70</v>
@@ -7599,13 +7665,13 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7628,13 +7694,13 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7657,13 +7723,13 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -7686,13 +7752,13 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -7713,15 +7779,15 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -7744,13 +7810,13 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -7776,10 +7842,10 @@
         <v>155</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -7805,10 +7871,10 @@
         <v>155</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -7834,10 +7900,10 @@
         <v>155</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -7863,10 +7929,10 @@
         <v>155</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -7889,13 +7955,13 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -7918,13 +7984,13 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -7946,14 +8012,14 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>169</v>
+      <c r="A23" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>174</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -7975,14 +8041,14 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>171</v>
+      <c r="A24" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -8005,8 +8071,8 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="17"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -8027,9 +8093,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="17"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -8049,10 +8115,10 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="17"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -8072,7 +8138,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -12327,52 +12393,8 @@
       <c r="T212" s="10"/>
       <c r="U212" s="10"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="10"/>
-      <c r="L213" s="10"/>
-      <c r="M213" s="10"/>
-      <c r="N213" s="10"/>
-      <c r="O213" s="10"/>
-      <c r="P213" s="10"/>
-      <c r="Q213" s="10"/>
-      <c r="R213" s="10"/>
-      <c r="S213" s="10"/>
-      <c r="T213" s="10"/>
-      <c r="U213" s="10"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-      <c r="K214" s="10"/>
-      <c r="L214" s="10"/>
-      <c r="M214" s="10"/>
-      <c r="N214" s="10"/>
-      <c r="O214" s="10"/>
-      <c r="P214" s="10"/>
-      <c r="Q214" s="10"/>
-      <c r="R214" s="10"/>
-      <c r="S214" s="10"/>
-      <c r="T214" s="10"/>
-      <c r="U214" s="10"/>
-    </row>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
     <row r="215" ht="15.75" customHeight="1"/>
     <row r="216" ht="15.75" customHeight="1"/>
     <row r="217" ht="15.75" customHeight="1"/>
@@ -13151,8 +13173,6 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13176,22 +13196,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>182</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -13219,20 +13239,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="55" t="str">
+        <v>183</v>
+      </c>
+      <c r="C2" s="57" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-15_13-51</v>
+        <v>2022-09-29_01-30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -323,16 +323,25 @@
     <t>Current Address</t>
   </si>
   <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Previous Address</t>
+  </si>
+  <si>
     <t>tel</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>Cell number</t>
+    <t>Current Cell number</t>
   </si>
   <si>
     <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+  </si>
+  <si>
+    <t>Must be in the format +1 (876) xxx-xxx</t>
   </si>
   <si>
     <t>select_one phone</t>
@@ -341,7 +350,7 @@
     <t>type1</t>
   </si>
   <si>
-    <t>Type of phone</t>
+    <t>Type of current phone</t>
   </si>
   <si>
     <t>select_one network</t>
@@ -568,6 +577,12 @@
     <t>Flow</t>
   </si>
   <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -762,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -922,12 +937,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1189,8 +1198,8 @@
     <col customWidth="1" min="9" max="9" width="41.71"/>
     <col customWidth="1" min="10" max="10" width="38.43"/>
     <col customWidth="1" min="11" max="11" width="36.71"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="19.71"/>
+    <col customWidth="1" min="12" max="12" width="73.71"/>
+    <col customWidth="1" min="13" max="13" width="38.71"/>
     <col customWidth="1" min="14" max="14" width="19.43"/>
     <col customWidth="1" min="15" max="15" width="12.29"/>
     <col customWidth="1" min="16" max="16" width="12.86"/>
@@ -2340,7 +2349,9 @@
       <c r="C27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -2506,7 +2517,9 @@
       <c r="C31" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -2539,33 +2552,27 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="C32" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="D32" s="32"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
@@ -2586,27 +2593,35 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
+      <c r="H33" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
       <c r="S33" s="30"/>
@@ -2632,7 +2647,7 @@
       <c r="B34" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="30"/>
@@ -2667,72 +2682,78 @@
       <c r="AG34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="37" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="B36" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="25"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="30" t="s">
+      <c r="C36" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="I36" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="25"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -2767,7 +2788,7 @@
       <c r="AA37" s="39"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="30" t="s">
@@ -2802,95 +2823,87 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="25"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F40" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="12"/>
       <c r="J40" s="13"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
       <c r="N40" s="14"/>
       <c r="O40" s="13"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
       <c r="S40" s="18"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>122</v>
+      <c r="B41" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="41"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="14"/>
@@ -2919,14 +2932,14 @@
         <v>46</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="10" t="s">
         <v>44</v>
       </c>
@@ -2958,23 +2971,25 @@
       <c r="AG42" s="25"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="A43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="19"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="25" t="s">
-        <v>125</v>
-      </c>
+      <c r="K43" s="41"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="14"/>
@@ -3002,19 +3017,19 @@
       <c r="A44" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>126</v>
+      <c r="B44" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="41"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="41" t="s">
-        <v>127</v>
+      <c r="K44" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
@@ -3044,18 +3059,18 @@
         <v>35</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="19"/>
+        <v>129</v>
+      </c>
+      <c r="C45" s="41"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
       <c r="K45" s="41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -3081,25 +3096,45 @@
       <c r="AG45" s="25"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="A46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="25"/>
+      <c r="K46" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
       <c r="N46" s="14"/>
       <c r="O46" s="13"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="25" t="s">
@@ -3116,24 +3151,28 @@
       <c r="J47" s="13"/>
       <c r="K47" s="25"/>
       <c r="N47" s="14"/>
-      <c r="O47" s="42"/>
+      <c r="O47" s="13"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="12"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="10"/>
+      <c r="K48" s="25"/>
       <c r="N48" s="14"/>
-      <c r="O48" s="13"/>
+      <c r="O48" s="42"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
@@ -3268,7 +3307,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="13"/>
       <c r="K56" s="10"/>
-      <c r="N56" s="43"/>
+      <c r="N56" s="14"/>
       <c r="O56" s="13"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
@@ -3285,12 +3324,12 @@
       <c r="I57" s="12"/>
       <c r="J57" s="13"/>
       <c r="K57" s="10"/>
-      <c r="N57" s="44"/>
+      <c r="N57" s="43"/>
       <c r="O57" s="13"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
-      <c r="S57" s="45"/>
+      <c r="S57" s="18"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="10"/>
@@ -3307,7 +3346,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="18"/>
+      <c r="S58" s="45"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="10"/>
@@ -3341,7 +3380,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="45"/>
+      <c r="S60" s="18"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="10"/>
@@ -3354,11 +3393,11 @@
       <c r="J61" s="13"/>
       <c r="K61" s="10"/>
       <c r="N61" s="44"/>
-      <c r="O61" s="42"/>
+      <c r="O61" s="13"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="18"/>
+      <c r="S61" s="45"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3371,11 +3410,11 @@
       <c r="J62" s="13"/>
       <c r="K62" s="10"/>
       <c r="N62" s="44"/>
-      <c r="O62" s="46"/>
+      <c r="O62" s="42"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="45"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10"/>
@@ -3388,11 +3427,11 @@
       <c r="J63" s="13"/>
       <c r="K63" s="10"/>
       <c r="N63" s="44"/>
-      <c r="O63" s="13"/>
+      <c r="O63" s="46"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="18"/>
+      <c r="S63" s="45"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3404,12 +3443,12 @@
       <c r="I64" s="12"/>
       <c r="J64" s="13"/>
       <c r="K64" s="10"/>
-      <c r="N64" s="14"/>
+      <c r="N64" s="44"/>
       <c r="O64" s="13"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
-      <c r="S64" s="45"/>
+      <c r="S64" s="18"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="10"/>
@@ -3426,7 +3465,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
-      <c r="S65" s="18"/>
+      <c r="S65" s="45"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="10"/>
@@ -3477,7 +3516,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
-      <c r="S68" s="45"/>
+      <c r="S68" s="18"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="10"/>
@@ -3494,7 +3533,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
+      <c r="S69" s="45"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="10"/>
@@ -3575,7 +3614,7 @@
       <c r="J74" s="13"/>
       <c r="K74" s="10"/>
       <c r="N74" s="14"/>
-      <c r="O74" s="42"/>
+      <c r="O74" s="13"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="17"/>
@@ -3591,12 +3630,12 @@
       <c r="I75" s="12"/>
       <c r="J75" s="13"/>
       <c r="K75" s="10"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="46"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="42"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="17"/>
-      <c r="S75" s="45"/>
+      <c r="S75" s="18"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="10"/>
@@ -3608,12 +3647,12 @@
       <c r="I76" s="12"/>
       <c r="J76" s="13"/>
       <c r="K76" s="10"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="13"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="46"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="17"/>
-      <c r="S76" s="18"/>
+      <c r="S76" s="45"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="10"/>
@@ -6522,7 +6561,23 @@
       <c r="R247" s="17"/>
       <c r="S247" s="18"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+      <c r="I248" s="12"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="10"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="13"/>
+      <c r="P248" s="15"/>
+      <c r="Q248" s="16"/>
+      <c r="R248" s="17"/>
+      <c r="S248" s="18"/>
+    </row>
     <row r="249" ht="15.75" customHeight="1"/>
     <row r="250" ht="15.75" customHeight="1"/>
     <row r="251" ht="15.75" customHeight="1"/>
@@ -7279,18 +7334,19 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A31 A33:A34 A36:A39 A46:A47">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A32 A34:A35 A37:A40 A47:A48">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25 A39">
+  <conditionalFormatting sqref="A22 A25 A40">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25 A40:A45">
+  <conditionalFormatting sqref="A23:A25 A41:A46">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7305,7 +7361,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7345,7 +7401,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7370,12 +7426,12 @@
     <col customWidth="1" min="3" max="3" width="29.57"/>
     <col customWidth="1" min="4" max="4" width="37.57"/>
     <col customWidth="1" min="5" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="21" width="15.14"/>
+    <col customWidth="1" min="9" max="26" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>1</v>
@@ -7401,16 +7457,21 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7430,16 +7491,21 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7459,16 +7525,21 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7488,16 +7559,21 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7517,16 +7593,21 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7546,16 +7627,21 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7575,16 +7661,21 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7604,16 +7695,21 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7633,13 +7729,18 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>70</v>
@@ -7662,16 +7763,21 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7691,16 +7797,21 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7720,16 +7831,21 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -7749,16 +7865,21 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -7778,16 +7899,21 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -7807,16 +7933,21 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -7836,16 +7967,21 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -7865,16 +8001,21 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -7894,16 +8035,21 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -7923,16 +8069,21 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -7952,16 +8103,21 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -7981,16 +8137,21 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -8010,16 +8171,21 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -8039,16 +8205,21 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -8068,29 +8239,45 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
+      <c r="A25" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
@@ -8114,6 +8301,11 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10"/>
@@ -8137,6 +8329,11 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
@@ -8160,6 +8357,11 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
@@ -8183,6 +8385,11 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="10"/>
@@ -8206,6 +8413,11 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="10"/>
@@ -8229,6 +8441,11 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="10"/>
@@ -8252,6 +8469,11 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="10"/>
@@ -8275,6 +8497,11 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="10"/>
@@ -8298,6 +8525,11 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="10"/>
@@ -8321,6 +8553,11 @@
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="10"/>
@@ -8344,6 +8581,11 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="10"/>
@@ -8367,6 +8609,11 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="10"/>
@@ -8390,6 +8637,11 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="10"/>
@@ -8413,6 +8665,11 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
@@ -8436,6 +8693,11 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
@@ -8459,6 +8721,11 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="10"/>
@@ -8482,6 +8749,11 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="10"/>
@@ -8505,6 +8777,11 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="10"/>
@@ -8528,6 +8805,11 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="10"/>
@@ -8551,6 +8833,11 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="10"/>
@@ -8574,6 +8861,11 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="10"/>
@@ -8597,6 +8889,11 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="10"/>
@@ -8620,6 +8917,11 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="10"/>
@@ -8643,6 +8945,11 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="10"/>
@@ -8666,6 +8973,11 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="10"/>
@@ -8689,6 +9001,11 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="10"/>
@@ -8712,6 +9029,11 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="10"/>
@@ -8735,6 +9057,11 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="10"/>
@@ -8758,6 +9085,11 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="10"/>
@@ -8781,6 +9113,11 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="10"/>
@@ -8804,6 +9141,11 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="10"/>
@@ -8827,6 +9169,11 @@
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="10"/>
@@ -8850,6 +9197,11 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="10"/>
@@ -8873,6 +9225,11 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="10"/>
@@ -8896,6 +9253,11 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="10"/>
@@ -8919,6 +9281,11 @@
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="10"/>
@@ -8942,6 +9309,11 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="10"/>
@@ -8965,6 +9337,11 @@
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="10"/>
@@ -8988,6 +9365,11 @@
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="10"/>
@@ -9011,6 +9393,11 @@
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="10"/>
@@ -9034,6 +9421,11 @@
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="10"/>
@@ -9057,6 +9449,11 @@
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="10"/>
@@ -9080,6 +9477,11 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="10"/>
@@ -9103,6 +9505,11 @@
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="10"/>
@@ -9126,6 +9533,11 @@
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="10"/>
@@ -9149,6 +9561,11 @@
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="10"/>
@@ -9172,6 +9589,11 @@
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="10"/>
@@ -9195,6 +9617,11 @@
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
       <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="10"/>
@@ -9218,6 +9645,11 @@
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="10"/>
@@ -9241,6 +9673,11 @@
       <c r="S75" s="10"/>
       <c r="T75" s="10"/>
       <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="10"/>
@@ -9264,6 +9701,11 @@
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="10"/>
@@ -9287,6 +9729,11 @@
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="10"/>
@@ -9310,6 +9757,11 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="10"/>
@@ -9333,6 +9785,11 @@
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="10"/>
@@ -9356,6 +9813,11 @@
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="10"/>
@@ -9379,6 +9841,11 @@
       <c r="S81" s="10"/>
       <c r="T81" s="10"/>
       <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="10"/>
@@ -9402,6 +9869,11 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="10"/>
@@ -9425,6 +9897,11 @@
       <c r="S83" s="10"/>
       <c r="T83" s="10"/>
       <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="10"/>
@@ -9448,6 +9925,11 @@
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="10"/>
@@ -9471,6 +9953,11 @@
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
       <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="10"/>
@@ -9494,6 +9981,11 @@
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="10"/>
@@ -9517,6 +10009,11 @@
       <c r="S87" s="10"/>
       <c r="T87" s="10"/>
       <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="10"/>
@@ -9540,6 +10037,11 @@
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="10"/>
@@ -9563,6 +10065,11 @@
       <c r="S89" s="10"/>
       <c r="T89" s="10"/>
       <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="10"/>
@@ -9586,6 +10093,11 @@
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="10"/>
@@ -9609,6 +10121,11 @@
       <c r="S91" s="10"/>
       <c r="T91" s="10"/>
       <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="10"/>
@@ -9632,6 +10149,11 @@
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
       <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="10"/>
@@ -9655,6 +10177,11 @@
       <c r="S93" s="10"/>
       <c r="T93" s="10"/>
       <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="10"/>
@@ -9678,6 +10205,11 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="10"/>
@@ -9701,6 +10233,11 @@
       <c r="S95" s="10"/>
       <c r="T95" s="10"/>
       <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="10"/>
@@ -9724,6 +10261,11 @@
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="10"/>
@@ -9747,6 +10289,11 @@
       <c r="S97" s="10"/>
       <c r="T97" s="10"/>
       <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="10"/>
@@ -9770,6 +10317,11 @@
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="10"/>
@@ -9793,6 +10345,11 @@
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
       <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="10"/>
@@ -9816,6 +10373,11 @@
       <c r="S100" s="10"/>
       <c r="T100" s="10"/>
       <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="10"/>
@@ -9839,6 +10401,11 @@
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
       <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="10"/>
@@ -9862,6 +10429,11 @@
       <c r="S102" s="10"/>
       <c r="T102" s="10"/>
       <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="10"/>
@@ -9885,6 +10457,11 @@
       <c r="S103" s="10"/>
       <c r="T103" s="10"/>
       <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="10"/>
@@ -9908,6 +10485,11 @@
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
       <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="10"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="10"/>
@@ -9931,6 +10513,11 @@
       <c r="S105" s="10"/>
       <c r="T105" s="10"/>
       <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="10"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="10"/>
@@ -9954,6 +10541,11 @@
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
       <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="10"/>
@@ -9977,6 +10569,11 @@
       <c r="S107" s="10"/>
       <c r="T107" s="10"/>
       <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="10"/>
+      <c r="Z107" s="10"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="10"/>
@@ -10000,6 +10597,11 @@
       <c r="S108" s="10"/>
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="10"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="10"/>
@@ -10023,6 +10625,11 @@
       <c r="S109" s="10"/>
       <c r="T109" s="10"/>
       <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="10"/>
+      <c r="Z109" s="10"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="10"/>
@@ -10046,6 +10653,11 @@
       <c r="S110" s="10"/>
       <c r="T110" s="10"/>
       <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="10"/>
@@ -10069,6 +10681,11 @@
       <c r="S111" s="10"/>
       <c r="T111" s="10"/>
       <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="10"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="10"/>
@@ -10092,6 +10709,11 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
       <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="10"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="10"/>
@@ -10115,6 +10737,11 @@
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
       <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="10"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="10"/>
@@ -10138,6 +10765,11 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
       <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="10"/>
+      <c r="Z114" s="10"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="10"/>
@@ -10161,6 +10793,11 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
       <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+      <c r="Z115" s="10"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="10"/>
@@ -10184,6 +10821,11 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
       <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="10"/>
+      <c r="Z116" s="10"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="10"/>
@@ -10207,6 +10849,11 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
       <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="10"/>
+      <c r="Z117" s="10"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="10"/>
@@ -10230,6 +10877,11 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
       <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="10"/>
+      <c r="Z118" s="10"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="10"/>
@@ -10253,6 +10905,11 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
       <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="10"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="10"/>
@@ -10276,6 +10933,11 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
       <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="10"/>
+      <c r="Z120" s="10"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="10"/>
@@ -10299,6 +10961,11 @@
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
       <c r="U121" s="10"/>
+      <c r="V121" s="10"/>
+      <c r="W121" s="10"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="10"/>
+      <c r="Z121" s="10"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="10"/>
@@ -10322,6 +10989,11 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="10"/>
+      <c r="V122" s="10"/>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="10"/>
+      <c r="Z122" s="10"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="10"/>
@@ -10345,6 +11017,11 @@
       <c r="S123" s="10"/>
       <c r="T123" s="10"/>
       <c r="U123" s="10"/>
+      <c r="V123" s="10"/>
+      <c r="W123" s="10"/>
+      <c r="X123" s="10"/>
+      <c r="Y123" s="10"/>
+      <c r="Z123" s="10"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="10"/>
@@ -10368,6 +11045,11 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
       <c r="U124" s="10"/>
+      <c r="V124" s="10"/>
+      <c r="W124" s="10"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="10"/>
+      <c r="Z124" s="10"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="10"/>
@@ -10391,6 +11073,11 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
       <c r="U125" s="10"/>
+      <c r="V125" s="10"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="10"/>
+      <c r="Z125" s="10"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="10"/>
@@ -10414,6 +11101,11 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
       <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="10"/>
+      <c r="Z126" s="10"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="10"/>
@@ -10437,6 +11129,11 @@
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
       <c r="U127" s="10"/>
+      <c r="V127" s="10"/>
+      <c r="W127" s="10"/>
+      <c r="X127" s="10"/>
+      <c r="Y127" s="10"/>
+      <c r="Z127" s="10"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="10"/>
@@ -10460,6 +11157,11 @@
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
       <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+      <c r="W128" s="10"/>
+      <c r="X128" s="10"/>
+      <c r="Y128" s="10"/>
+      <c r="Z128" s="10"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="10"/>
@@ -10483,6 +11185,11 @@
       <c r="S129" s="10"/>
       <c r="T129" s="10"/>
       <c r="U129" s="10"/>
+      <c r="V129" s="10"/>
+      <c r="W129" s="10"/>
+      <c r="X129" s="10"/>
+      <c r="Y129" s="10"/>
+      <c r="Z129" s="10"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="10"/>
@@ -10506,6 +11213,11 @@
       <c r="S130" s="10"/>
       <c r="T130" s="10"/>
       <c r="U130" s="10"/>
+      <c r="V130" s="10"/>
+      <c r="W130" s="10"/>
+      <c r="X130" s="10"/>
+      <c r="Y130" s="10"/>
+      <c r="Z130" s="10"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="10"/>
@@ -10529,6 +11241,11 @@
       <c r="S131" s="10"/>
       <c r="T131" s="10"/>
       <c r="U131" s="10"/>
+      <c r="V131" s="10"/>
+      <c r="W131" s="10"/>
+      <c r="X131" s="10"/>
+      <c r="Y131" s="10"/>
+      <c r="Z131" s="10"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="10"/>
@@ -10552,6 +11269,11 @@
       <c r="S132" s="10"/>
       <c r="T132" s="10"/>
       <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+      <c r="W132" s="10"/>
+      <c r="X132" s="10"/>
+      <c r="Y132" s="10"/>
+      <c r="Z132" s="10"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="10"/>
@@ -10575,6 +11297,11 @@
       <c r="S133" s="10"/>
       <c r="T133" s="10"/>
       <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+      <c r="W133" s="10"/>
+      <c r="X133" s="10"/>
+      <c r="Y133" s="10"/>
+      <c r="Z133" s="10"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="10"/>
@@ -10598,6 +11325,11 @@
       <c r="S134" s="10"/>
       <c r="T134" s="10"/>
       <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="10"/>
@@ -10621,6 +11353,11 @@
       <c r="S135" s="10"/>
       <c r="T135" s="10"/>
       <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+      <c r="X135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="10"/>
@@ -10644,6 +11381,11 @@
       <c r="S136" s="10"/>
       <c r="T136" s="10"/>
       <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+      <c r="W136" s="10"/>
+      <c r="X136" s="10"/>
+      <c r="Y136" s="10"/>
+      <c r="Z136" s="10"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="10"/>
@@ -10667,6 +11409,11 @@
       <c r="S137" s="10"/>
       <c r="T137" s="10"/>
       <c r="U137" s="10"/>
+      <c r="V137" s="10"/>
+      <c r="W137" s="10"/>
+      <c r="X137" s="10"/>
+      <c r="Y137" s="10"/>
+      <c r="Z137" s="10"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="10"/>
@@ -10690,6 +11437,11 @@
       <c r="S138" s="10"/>
       <c r="T138" s="10"/>
       <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="10"/>
+      <c r="Z138" s="10"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="10"/>
@@ -10713,6 +11465,11 @@
       <c r="S139" s="10"/>
       <c r="T139" s="10"/>
       <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="10"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="10"/>
@@ -10736,6 +11493,11 @@
       <c r="S140" s="10"/>
       <c r="T140" s="10"/>
       <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="10"/>
+      <c r="Z140" s="10"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="10"/>
@@ -10759,6 +11521,11 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
       <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="10"/>
+      <c r="Z141" s="10"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="10"/>
@@ -10782,6 +11549,11 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
       <c r="U142" s="10"/>
+      <c r="V142" s="10"/>
+      <c r="W142" s="10"/>
+      <c r="X142" s="10"/>
+      <c r="Y142" s="10"/>
+      <c r="Z142" s="10"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="10"/>
@@ -10805,6 +11577,11 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
       <c r="U143" s="10"/>
+      <c r="V143" s="10"/>
+      <c r="W143" s="10"/>
+      <c r="X143" s="10"/>
+      <c r="Y143" s="10"/>
+      <c r="Z143" s="10"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="10"/>
@@ -10828,6 +11605,11 @@
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
       <c r="U144" s="10"/>
+      <c r="V144" s="10"/>
+      <c r="W144" s="10"/>
+      <c r="X144" s="10"/>
+      <c r="Y144" s="10"/>
+      <c r="Z144" s="10"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="10"/>
@@ -10851,6 +11633,11 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
       <c r="U145" s="10"/>
+      <c r="V145" s="10"/>
+      <c r="W145" s="10"/>
+      <c r="X145" s="10"/>
+      <c r="Y145" s="10"/>
+      <c r="Z145" s="10"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="10"/>
@@ -10874,6 +11661,11 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
       <c r="U146" s="10"/>
+      <c r="V146" s="10"/>
+      <c r="W146" s="10"/>
+      <c r="X146" s="10"/>
+      <c r="Y146" s="10"/>
+      <c r="Z146" s="10"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="10"/>
@@ -10897,6 +11689,11 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
       <c r="U147" s="10"/>
+      <c r="V147" s="10"/>
+      <c r="W147" s="10"/>
+      <c r="X147" s="10"/>
+      <c r="Y147" s="10"/>
+      <c r="Z147" s="10"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="10"/>
@@ -10920,6 +11717,11 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
       <c r="U148" s="10"/>
+      <c r="V148" s="10"/>
+      <c r="W148" s="10"/>
+      <c r="X148" s="10"/>
+      <c r="Y148" s="10"/>
+      <c r="Z148" s="10"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="10"/>
@@ -10943,6 +11745,11 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
       <c r="U149" s="10"/>
+      <c r="V149" s="10"/>
+      <c r="W149" s="10"/>
+      <c r="X149" s="10"/>
+      <c r="Y149" s="10"/>
+      <c r="Z149" s="10"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="10"/>
@@ -10966,6 +11773,11 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
       <c r="U150" s="10"/>
+      <c r="V150" s="10"/>
+      <c r="W150" s="10"/>
+      <c r="X150" s="10"/>
+      <c r="Y150" s="10"/>
+      <c r="Z150" s="10"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="10"/>
@@ -10989,6 +11801,11 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
       <c r="U151" s="10"/>
+      <c r="V151" s="10"/>
+      <c r="W151" s="10"/>
+      <c r="X151" s="10"/>
+      <c r="Y151" s="10"/>
+      <c r="Z151" s="10"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="10"/>
@@ -11012,6 +11829,11 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
       <c r="U152" s="10"/>
+      <c r="V152" s="10"/>
+      <c r="W152" s="10"/>
+      <c r="X152" s="10"/>
+      <c r="Y152" s="10"/>
+      <c r="Z152" s="10"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="10"/>
@@ -11035,6 +11857,11 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
       <c r="U153" s="10"/>
+      <c r="V153" s="10"/>
+      <c r="W153" s="10"/>
+      <c r="X153" s="10"/>
+      <c r="Y153" s="10"/>
+      <c r="Z153" s="10"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="10"/>
@@ -11058,6 +11885,11 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
       <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+      <c r="W154" s="10"/>
+      <c r="X154" s="10"/>
+      <c r="Y154" s="10"/>
+      <c r="Z154" s="10"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="10"/>
@@ -11081,6 +11913,11 @@
       <c r="S155" s="10"/>
       <c r="T155" s="10"/>
       <c r="U155" s="10"/>
+      <c r="V155" s="10"/>
+      <c r="W155" s="10"/>
+      <c r="X155" s="10"/>
+      <c r="Y155" s="10"/>
+      <c r="Z155" s="10"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="10"/>
@@ -11104,6 +11941,11 @@
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
       <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+      <c r="W156" s="10"/>
+      <c r="X156" s="10"/>
+      <c r="Y156" s="10"/>
+      <c r="Z156" s="10"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="10"/>
@@ -11127,6 +11969,11 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
       <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+      <c r="W157" s="10"/>
+      <c r="X157" s="10"/>
+      <c r="Y157" s="10"/>
+      <c r="Z157" s="10"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="10"/>
@@ -11150,6 +11997,11 @@
       <c r="S158" s="10"/>
       <c r="T158" s="10"/>
       <c r="U158" s="10"/>
+      <c r="V158" s="10"/>
+      <c r="W158" s="10"/>
+      <c r="X158" s="10"/>
+      <c r="Y158" s="10"/>
+      <c r="Z158" s="10"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="10"/>
@@ -11173,6 +12025,11 @@
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
       <c r="U159" s="10"/>
+      <c r="V159" s="10"/>
+      <c r="W159" s="10"/>
+      <c r="X159" s="10"/>
+      <c r="Y159" s="10"/>
+      <c r="Z159" s="10"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="10"/>
@@ -11196,6 +12053,11 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
       <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
+      <c r="Y160" s="10"/>
+      <c r="Z160" s="10"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="10"/>
@@ -11219,6 +12081,11 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
       <c r="U161" s="10"/>
+      <c r="V161" s="10"/>
+      <c r="W161" s="10"/>
+      <c r="X161" s="10"/>
+      <c r="Y161" s="10"/>
+      <c r="Z161" s="10"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="10"/>
@@ -11242,6 +12109,11 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
       <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+      <c r="W162" s="10"/>
+      <c r="X162" s="10"/>
+      <c r="Y162" s="10"/>
+      <c r="Z162" s="10"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="10"/>
@@ -11265,6 +12137,11 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
       <c r="U163" s="10"/>
+      <c r="V163" s="10"/>
+      <c r="W163" s="10"/>
+      <c r="X163" s="10"/>
+      <c r="Y163" s="10"/>
+      <c r="Z163" s="10"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="10"/>
@@ -11288,6 +12165,11 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
       <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+      <c r="W164" s="10"/>
+      <c r="X164" s="10"/>
+      <c r="Y164" s="10"/>
+      <c r="Z164" s="10"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="10"/>
@@ -11311,6 +12193,11 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
+      <c r="V165" s="10"/>
+      <c r="W165" s="10"/>
+      <c r="X165" s="10"/>
+      <c r="Y165" s="10"/>
+      <c r="Z165" s="10"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="10"/>
@@ -11334,6 +12221,11 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
       <c r="U166" s="10"/>
+      <c r="V166" s="10"/>
+      <c r="W166" s="10"/>
+      <c r="X166" s="10"/>
+      <c r="Y166" s="10"/>
+      <c r="Z166" s="10"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="10"/>
@@ -11357,6 +12249,11 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
       <c r="U167" s="10"/>
+      <c r="V167" s="10"/>
+      <c r="W167" s="10"/>
+      <c r="X167" s="10"/>
+      <c r="Y167" s="10"/>
+      <c r="Z167" s="10"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="10"/>
@@ -11380,6 +12277,11 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
       <c r="U168" s="10"/>
+      <c r="V168" s="10"/>
+      <c r="W168" s="10"/>
+      <c r="X168" s="10"/>
+      <c r="Y168" s="10"/>
+      <c r="Z168" s="10"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="10"/>
@@ -11403,6 +12305,11 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
       <c r="U169" s="10"/>
+      <c r="V169" s="10"/>
+      <c r="W169" s="10"/>
+      <c r="X169" s="10"/>
+      <c r="Y169" s="10"/>
+      <c r="Z169" s="10"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="10"/>
@@ -11426,6 +12333,11 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
       <c r="U170" s="10"/>
+      <c r="V170" s="10"/>
+      <c r="W170" s="10"/>
+      <c r="X170" s="10"/>
+      <c r="Y170" s="10"/>
+      <c r="Z170" s="10"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="10"/>
@@ -11449,6 +12361,11 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
       <c r="U171" s="10"/>
+      <c r="V171" s="10"/>
+      <c r="W171" s="10"/>
+      <c r="X171" s="10"/>
+      <c r="Y171" s="10"/>
+      <c r="Z171" s="10"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="10"/>
@@ -11472,6 +12389,11 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
       <c r="U172" s="10"/>
+      <c r="V172" s="10"/>
+      <c r="W172" s="10"/>
+      <c r="X172" s="10"/>
+      <c r="Y172" s="10"/>
+      <c r="Z172" s="10"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="10"/>
@@ -11495,6 +12417,11 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
       <c r="U173" s="10"/>
+      <c r="V173" s="10"/>
+      <c r="W173" s="10"/>
+      <c r="X173" s="10"/>
+      <c r="Y173" s="10"/>
+      <c r="Z173" s="10"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="10"/>
@@ -11518,6 +12445,11 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
       <c r="U174" s="10"/>
+      <c r="V174" s="10"/>
+      <c r="W174" s="10"/>
+      <c r="X174" s="10"/>
+      <c r="Y174" s="10"/>
+      <c r="Z174" s="10"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="10"/>
@@ -11541,6 +12473,11 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
       <c r="U175" s="10"/>
+      <c r="V175" s="10"/>
+      <c r="W175" s="10"/>
+      <c r="X175" s="10"/>
+      <c r="Y175" s="10"/>
+      <c r="Z175" s="10"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="10"/>
@@ -11564,6 +12501,11 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
       <c r="U176" s="10"/>
+      <c r="V176" s="10"/>
+      <c r="W176" s="10"/>
+      <c r="X176" s="10"/>
+      <c r="Y176" s="10"/>
+      <c r="Z176" s="10"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="10"/>
@@ -11587,6 +12529,11 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
       <c r="U177" s="10"/>
+      <c r="V177" s="10"/>
+      <c r="W177" s="10"/>
+      <c r="X177" s="10"/>
+      <c r="Y177" s="10"/>
+      <c r="Z177" s="10"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="10"/>
@@ -11610,6 +12557,11 @@
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
       <c r="U178" s="10"/>
+      <c r="V178" s="10"/>
+      <c r="W178" s="10"/>
+      <c r="X178" s="10"/>
+      <c r="Y178" s="10"/>
+      <c r="Z178" s="10"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="10"/>
@@ -11633,6 +12585,11 @@
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
       <c r="U179" s="10"/>
+      <c r="V179" s="10"/>
+      <c r="W179" s="10"/>
+      <c r="X179" s="10"/>
+      <c r="Y179" s="10"/>
+      <c r="Z179" s="10"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="10"/>
@@ -11656,6 +12613,11 @@
       <c r="S180" s="10"/>
       <c r="T180" s="10"/>
       <c r="U180" s="10"/>
+      <c r="V180" s="10"/>
+      <c r="W180" s="10"/>
+      <c r="X180" s="10"/>
+      <c r="Y180" s="10"/>
+      <c r="Z180" s="10"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="10"/>
@@ -11679,6 +12641,11 @@
       <c r="S181" s="10"/>
       <c r="T181" s="10"/>
       <c r="U181" s="10"/>
+      <c r="V181" s="10"/>
+      <c r="W181" s="10"/>
+      <c r="X181" s="10"/>
+      <c r="Y181" s="10"/>
+      <c r="Z181" s="10"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="10"/>
@@ -11702,6 +12669,11 @@
       <c r="S182" s="10"/>
       <c r="T182" s="10"/>
       <c r="U182" s="10"/>
+      <c r="V182" s="10"/>
+      <c r="W182" s="10"/>
+      <c r="X182" s="10"/>
+      <c r="Y182" s="10"/>
+      <c r="Z182" s="10"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="10"/>
@@ -11725,6 +12697,11 @@
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
       <c r="U183" s="10"/>
+      <c r="V183" s="10"/>
+      <c r="W183" s="10"/>
+      <c r="X183" s="10"/>
+      <c r="Y183" s="10"/>
+      <c r="Z183" s="10"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="10"/>
@@ -11748,6 +12725,11 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
       <c r="U184" s="10"/>
+      <c r="V184" s="10"/>
+      <c r="W184" s="10"/>
+      <c r="X184" s="10"/>
+      <c r="Y184" s="10"/>
+      <c r="Z184" s="10"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="10"/>
@@ -11771,6 +12753,11 @@
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
       <c r="U185" s="10"/>
+      <c r="V185" s="10"/>
+      <c r="W185" s="10"/>
+      <c r="X185" s="10"/>
+      <c r="Y185" s="10"/>
+      <c r="Z185" s="10"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="10"/>
@@ -11794,6 +12781,11 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
       <c r="U186" s="10"/>
+      <c r="V186" s="10"/>
+      <c r="W186" s="10"/>
+      <c r="X186" s="10"/>
+      <c r="Y186" s="10"/>
+      <c r="Z186" s="10"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="10"/>
@@ -11817,6 +12809,11 @@
       <c r="S187" s="10"/>
       <c r="T187" s="10"/>
       <c r="U187" s="10"/>
+      <c r="V187" s="10"/>
+      <c r="W187" s="10"/>
+      <c r="X187" s="10"/>
+      <c r="Y187" s="10"/>
+      <c r="Z187" s="10"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="10"/>
@@ -11840,6 +12837,11 @@
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
       <c r="U188" s="10"/>
+      <c r="V188" s="10"/>
+      <c r="W188" s="10"/>
+      <c r="X188" s="10"/>
+      <c r="Y188" s="10"/>
+      <c r="Z188" s="10"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="10"/>
@@ -11863,6 +12865,11 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
       <c r="U189" s="10"/>
+      <c r="V189" s="10"/>
+      <c r="W189" s="10"/>
+      <c r="X189" s="10"/>
+      <c r="Y189" s="10"/>
+      <c r="Z189" s="10"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="10"/>
@@ -11886,6 +12893,11 @@
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
       <c r="U190" s="10"/>
+      <c r="V190" s="10"/>
+      <c r="W190" s="10"/>
+      <c r="X190" s="10"/>
+      <c r="Y190" s="10"/>
+      <c r="Z190" s="10"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="10"/>
@@ -11909,6 +12921,11 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
       <c r="U191" s="10"/>
+      <c r="V191" s="10"/>
+      <c r="W191" s="10"/>
+      <c r="X191" s="10"/>
+      <c r="Y191" s="10"/>
+      <c r="Z191" s="10"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="10"/>
@@ -11932,6 +12949,11 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
       <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+      <c r="X192" s="10"/>
+      <c r="Y192" s="10"/>
+      <c r="Z192" s="10"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="10"/>
@@ -11955,6 +12977,11 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
       <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+      <c r="Z193" s="10"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="10"/>
@@ -11978,6 +13005,11 @@
       <c r="S194" s="10"/>
       <c r="T194" s="10"/>
       <c r="U194" s="10"/>
+      <c r="V194" s="10"/>
+      <c r="W194" s="10"/>
+      <c r="X194" s="10"/>
+      <c r="Y194" s="10"/>
+      <c r="Z194" s="10"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="10"/>
@@ -12001,6 +13033,11 @@
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
       <c r="U195" s="10"/>
+      <c r="V195" s="10"/>
+      <c r="W195" s="10"/>
+      <c r="X195" s="10"/>
+      <c r="Y195" s="10"/>
+      <c r="Z195" s="10"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="10"/>
@@ -12024,6 +13061,11 @@
       <c r="S196" s="10"/>
       <c r="T196" s="10"/>
       <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+      <c r="Z196" s="10"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="10"/>
@@ -12047,6 +13089,11 @@
       <c r="S197" s="10"/>
       <c r="T197" s="10"/>
       <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="10"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="10"/>
@@ -12070,6 +13117,11 @@
       <c r="S198" s="10"/>
       <c r="T198" s="10"/>
       <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+      <c r="Z198" s="10"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="10"/>
@@ -12093,6 +13145,11 @@
       <c r="S199" s="10"/>
       <c r="T199" s="10"/>
       <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+      <c r="Z199" s="10"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="10"/>
@@ -12116,6 +13173,11 @@
       <c r="S200" s="10"/>
       <c r="T200" s="10"/>
       <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+      <c r="Z200" s="10"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="10"/>
@@ -12139,6 +13201,11 @@
       <c r="S201" s="10"/>
       <c r="T201" s="10"/>
       <c r="U201" s="10"/>
+      <c r="V201" s="10"/>
+      <c r="W201" s="10"/>
+      <c r="X201" s="10"/>
+      <c r="Y201" s="10"/>
+      <c r="Z201" s="10"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="10"/>
@@ -12162,6 +13229,11 @@
       <c r="S202" s="10"/>
       <c r="T202" s="10"/>
       <c r="U202" s="10"/>
+      <c r="V202" s="10"/>
+      <c r="W202" s="10"/>
+      <c r="X202" s="10"/>
+      <c r="Y202" s="10"/>
+      <c r="Z202" s="10"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="10"/>
@@ -12185,6 +13257,11 @@
       <c r="S203" s="10"/>
       <c r="T203" s="10"/>
       <c r="U203" s="10"/>
+      <c r="V203" s="10"/>
+      <c r="W203" s="10"/>
+      <c r="X203" s="10"/>
+      <c r="Y203" s="10"/>
+      <c r="Z203" s="10"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="10"/>
@@ -12208,6 +13285,11 @@
       <c r="S204" s="10"/>
       <c r="T204" s="10"/>
       <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+      <c r="Z204" s="10"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="10"/>
@@ -12231,6 +13313,11 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
       <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+      <c r="Z205" s="10"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="10"/>
@@ -12254,6 +13341,11 @@
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
       <c r="U206" s="10"/>
+      <c r="V206" s="10"/>
+      <c r="W206" s="10"/>
+      <c r="X206" s="10"/>
+      <c r="Y206" s="10"/>
+      <c r="Z206" s="10"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="10"/>
@@ -12277,6 +13369,11 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
       <c r="U207" s="10"/>
+      <c r="V207" s="10"/>
+      <c r="W207" s="10"/>
+      <c r="X207" s="10"/>
+      <c r="Y207" s="10"/>
+      <c r="Z207" s="10"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="10"/>
@@ -12300,6 +13397,11 @@
       <c r="S208" s="10"/>
       <c r="T208" s="10"/>
       <c r="U208" s="10"/>
+      <c r="V208" s="10"/>
+      <c r="W208" s="10"/>
+      <c r="X208" s="10"/>
+      <c r="Y208" s="10"/>
+      <c r="Z208" s="10"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="10"/>
@@ -12323,6 +13425,11 @@
       <c r="S209" s="10"/>
       <c r="T209" s="10"/>
       <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+      <c r="Z209" s="10"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="10"/>
@@ -12346,6 +13453,11 @@
       <c r="S210" s="10"/>
       <c r="T210" s="10"/>
       <c r="U210" s="10"/>
+      <c r="V210" s="10"/>
+      <c r="W210" s="10"/>
+      <c r="X210" s="10"/>
+      <c r="Y210" s="10"/>
+      <c r="Z210" s="10"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="10"/>
@@ -12369,6 +13481,11 @@
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
       <c r="U211" s="10"/>
+      <c r="V211" s="10"/>
+      <c r="W211" s="10"/>
+      <c r="X211" s="10"/>
+      <c r="Y211" s="10"/>
+      <c r="Z211" s="10"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="10"/>
@@ -12392,6 +13509,11 @@
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
       <c r="U212" s="10"/>
+      <c r="V212" s="10"/>
+      <c r="W212" s="10"/>
+      <c r="X212" s="10"/>
+      <c r="Y212" s="10"/>
+      <c r="Z212" s="10"/>
     </row>
     <row r="213" ht="15.75" customHeight="1"/>
     <row r="214" ht="15.75" customHeight="1"/>
@@ -13196,22 +14318,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>187</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -13239,20 +14361,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="57" t="str">
+        <v>188</v>
+      </c>
+      <c r="C2" s="55" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-29_01-30</v>
+        <v>2022-10-19_00-38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -2433,9 +2433,7 @@
       <c r="C29" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="D29" s="31"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -2476,7 +2474,9 @@
       <c r="C30" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="C2" s="55" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-19_00-38</v>
+        <v>2022-11-29_08-26</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>189</v>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
   <si>
     <t>type</t>
   </si>
@@ -284,6 +284,15 @@
     <t>Cannot change</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date_reg</t>
+  </si>
+  <si>
+    <t>Date Registered into HealthJam Digital Case Management System</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -338,10 +347,7 @@
     <t>Current Cell number</t>
   </si>
   <si>
-    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
-  </si>
-  <si>
-    <t>Must be in the format +1 (876) xxx-xxx</t>
+    <t>Must be in the format +1 (876) xxx-xxxx</t>
   </si>
   <si>
     <t>select_one phone</t>
@@ -360,9 +366,6 @@
   </si>
   <si>
     <t>Which network do you use?</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -777,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -859,6 +862,12 @@
     </xf>
     <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -2297,25 +2306,23 @@
       <c r="AG25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="B26" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="14"/>
@@ -2340,16 +2347,16 @@
       <c r="AG26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="B27" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="10"/>
@@ -2383,39 +2390,41 @@
       <c r="AG27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
+      <c r="C28" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
@@ -2424,39 +2433,39 @@
       <c r="AG28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
@@ -2465,41 +2474,39 @@
       <c r="AG29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
+      <c r="C30" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
@@ -2508,41 +2515,41 @@
       <c r="AG30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -2551,39 +2558,41 @@
       <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
+      <c r="C32" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -2592,47 +2601,39 @@
       <c r="AG32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -2641,39 +2642,45 @@
       <c r="AG33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="D34" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -2682,39 +2689,39 @@
       <c r="AG34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="C35" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
@@ -2723,230 +2730,228 @@
       <c r="AG35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="C36" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="37" t="s">
+      <c r="C37" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="25"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="18"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="30" t="s">
+      <c r="I37" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="J37" s="13"/>
+      <c r="K37" s="25"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="B38" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="B39" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="30" t="s">
+      <c r="C39" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="B40" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="10" t="s">
+      <c r="C40" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="25"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="18"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
       <c r="N41" s="14"/>
       <c r="O41" s="13"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="21" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="19"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="41"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="14"/>
@@ -2974,7 +2979,7 @@
       <c r="A43" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C43" s="24" t="s">
@@ -2982,14 +2987,14 @@
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="41"/>
+      <c r="K43" s="43"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="14"/>
@@ -3014,23 +3019,25 @@
       <c r="AG43" s="25"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="19"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="25" t="s">
-        <v>128</v>
-      </c>
+      <c r="K44" s="43"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
       <c r="N44" s="14"/>
@@ -3058,19 +3065,19 @@
       <c r="A45" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="41" t="s">
-        <v>130</v>
+      <c r="K45" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -3099,19 +3106,19 @@
       <c r="A46" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="19"/>
+      <c r="B46" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="43"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="41" t="s">
-        <v>132</v>
+      <c r="K46" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
@@ -3137,25 +3144,45 @@
       <c r="AG46" s="25"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="A47" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="25"/>
+      <c r="K47" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="14"/>
       <c r="O47" s="13"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="25" t="s">
@@ -3172,24 +3199,28 @@
       <c r="J48" s="13"/>
       <c r="K48" s="25"/>
       <c r="N48" s="14"/>
-      <c r="O48" s="42"/>
+      <c r="O48" s="13"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="A49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="10"/>
+      <c r="K49" s="25"/>
       <c r="N49" s="14"/>
-      <c r="O49" s="13"/>
+      <c r="O49" s="44"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
@@ -3324,7 +3355,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="13"/>
       <c r="K57" s="10"/>
-      <c r="N57" s="43"/>
+      <c r="N57" s="14"/>
       <c r="O57" s="13"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
@@ -3341,12 +3372,12 @@
       <c r="I58" s="12"/>
       <c r="J58" s="13"/>
       <c r="K58" s="10"/>
-      <c r="N58" s="44"/>
+      <c r="N58" s="45"/>
       <c r="O58" s="13"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="45"/>
+      <c r="S58" s="18"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="10"/>
@@ -3358,12 +3389,12 @@
       <c r="I59" s="12"/>
       <c r="J59" s="13"/>
       <c r="K59" s="10"/>
-      <c r="N59" s="44"/>
+      <c r="N59" s="46"/>
       <c r="O59" s="13"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="47"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10"/>
@@ -3375,7 +3406,7 @@
       <c r="I60" s="12"/>
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
-      <c r="N60" s="44"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="13"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
@@ -3392,12 +3423,12 @@
       <c r="I61" s="12"/>
       <c r="J61" s="13"/>
       <c r="K61" s="10"/>
-      <c r="N61" s="44"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="13"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="45"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3409,12 +3440,12 @@
       <c r="I62" s="12"/>
       <c r="J62" s="13"/>
       <c r="K62" s="10"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="42"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="13"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="18"/>
+      <c r="S62" s="47"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10"/>
@@ -3426,12 +3457,12 @@
       <c r="I63" s="12"/>
       <c r="J63" s="13"/>
       <c r="K63" s="10"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="44"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="45"/>
+      <c r="S63" s="18"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3443,12 +3474,12 @@
       <c r="I64" s="12"/>
       <c r="J64" s="13"/>
       <c r="K64" s="10"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="13"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="48"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
-      <c r="S64" s="18"/>
+      <c r="S64" s="47"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="10"/>
@@ -3460,12 +3491,12 @@
       <c r="I65" s="12"/>
       <c r="J65" s="13"/>
       <c r="K65" s="10"/>
-      <c r="N65" s="14"/>
+      <c r="N65" s="46"/>
       <c r="O65" s="13"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
-      <c r="S65" s="45"/>
+      <c r="S65" s="18"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="10"/>
@@ -3482,7 +3513,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="18"/>
+      <c r="S66" s="47"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="10"/>
@@ -3533,7 +3564,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
-      <c r="S69" s="45"/>
+      <c r="S69" s="18"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="10"/>
@@ -3550,7 +3581,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="17"/>
-      <c r="S70" s="18"/>
+      <c r="S70" s="47"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="10"/>
@@ -3631,7 +3662,7 @@
       <c r="J75" s="13"/>
       <c r="K75" s="10"/>
       <c r="N75" s="14"/>
-      <c r="O75" s="42"/>
+      <c r="O75" s="13"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="17"/>
@@ -3647,12 +3678,12 @@
       <c r="I76" s="12"/>
       <c r="J76" s="13"/>
       <c r="K76" s="10"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="46"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="44"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="17"/>
-      <c r="S76" s="45"/>
+      <c r="S76" s="18"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="10"/>
@@ -3664,12 +3695,12 @@
       <c r="I77" s="12"/>
       <c r="J77" s="13"/>
       <c r="K77" s="10"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="13"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="48"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="18"/>
+      <c r="S77" s="47"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="10"/>
@@ -6578,7 +6609,23 @@
       <c r="R248" s="17"/>
       <c r="S248" s="18"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1">
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="13"/>
+      <c r="K249" s="10"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="13"/>
+      <c r="P249" s="15"/>
+      <c r="Q249" s="16"/>
+      <c r="R249" s="17"/>
+      <c r="S249" s="18"/>
+    </row>
     <row r="250" ht="15.75" customHeight="1"/>
     <row r="251" ht="15.75" customHeight="1"/>
     <row r="252" ht="15.75" customHeight="1"/>
@@ -7335,18 +7382,19 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A26:A32 A34:A35 A37:A40 A47:A48">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A27:A33 A35:A36 A38:A41 A48:A49">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25 A40">
+  <conditionalFormatting sqref="A22 A25:A26 A41">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25 A41:A46">
+  <conditionalFormatting sqref="A23:A26 A42:A47">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7361,7 +7409,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7401,7 +7449,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A34">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7430,13 +7478,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8"/>
@@ -7464,14 +7512,14 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>136</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7498,14 +7546,14 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>137</v>
+      <c r="C3" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7532,14 +7580,14 @@
       <c r="Z3" s="10"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>140</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7566,14 +7614,14 @@
       <c r="Z4" s="10"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>142</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>143</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7600,14 +7648,14 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>144</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>145</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7634,14 +7682,14 @@
       <c r="Z6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>145</v>
+      <c r="A7" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7669,13 +7717,13 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>148</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>149</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7703,13 +7751,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>151</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7737,12 +7785,12 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="17"/>
@@ -7771,13 +7819,13 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>154</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7804,14 +7852,14 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>142</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7838,14 +7886,14 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>140</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -7872,14 +7920,14 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>157</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -7906,14 +7954,14 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>160</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -7940,14 +7988,14 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>162</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -7974,14 +8022,14 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>164</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -8008,14 +8056,14 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>166</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -8042,14 +8090,14 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>168</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -8076,14 +8124,14 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>170</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -8110,14 +8158,14 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>172</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>173</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -8144,14 +8192,14 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="A22" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>174</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -8179,13 +8227,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="B23" s="54" t="s">
         <v>177</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>178</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -8213,13 +8261,13 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>179</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>180</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -8247,37 +8295,37 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="C25" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
@@ -14318,22 +14366,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="54" t="s">
         <v>187</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>188</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -14361,20 +14409,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="55" t="str">
+        <v>189</v>
+      </c>
+      <c r="C2" s="57" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-29_08-26</v>
+        <v>2023-06-19_10-42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>type</t>
   </si>
@@ -293,6 +293,21 @@
     <t>Date Registered into HealthJam Digital Case Management System</t>
   </si>
   <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>name_f</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -321,9 +336,6 @@
   </si>
   <si>
     <t>TSIS number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
   </si>
   <si>
     <t>address</t>
@@ -879,10 +891,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2347,25 +2359,25 @@
       <c r="AG26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="10"/>
+      <c r="B27" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="14"/>
@@ -2390,16 +2402,16 @@
       <c r="AG27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>87</v>
+      <c r="A28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="10"/>
@@ -2433,39 +2445,41 @@
       <c r="AG28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
+      <c r="B29" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
@@ -2475,38 +2489,40 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
@@ -2515,41 +2531,39 @@
       <c r="AG30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -2558,41 +2572,39 @@
       <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -2601,39 +2613,41 @@
       <c r="AG32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
+      <c r="D33" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -2642,45 +2656,41 @@
       <c r="AG33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -2689,39 +2699,39 @@
       <c r="AG34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>107</v>
+      <c r="A35" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
@@ -2730,39 +2740,45 @@
       <c r="AG35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
@@ -2771,131 +2787,143 @@
       <c r="AG36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="25"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="32" t="s">
+      <c r="B39" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="C39" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="33" t="s">
+      <c r="I39" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="J39" s="13"/>
+      <c r="K39" s="25"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="B40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="C40" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
       <c r="T40" s="41"/>
       <c r="U40" s="41"/>
       <c r="V40" s="41"/>
@@ -2906,138 +2934,122 @@
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="19" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="25"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="18"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="19"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="K43" s="25"/>
       <c r="N43" s="14"/>
       <c r="O43" s="13"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>127</v>
+      <c r="B44" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="43"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
       <c r="N44" s="14"/>
@@ -3062,23 +3074,25 @@
       <c r="AG44" s="25"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="A45" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="19"/>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="25" t="s">
-        <v>129</v>
-      </c>
+      <c r="K45" s="43"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
       <c r="N45" s="14"/>
@@ -3103,23 +3117,25 @@
       <c r="AG45" s="25"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="26" t="s">
-        <v>35</v>
+      <c r="A46" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="43"/>
+        <v>131</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="43" t="s">
-        <v>131</v>
-      </c>
+      <c r="K46" s="43"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
       <c r="N46" s="14"/>
@@ -3147,18 +3163,18 @@
       <c r="A47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="25" t="s">
         <v>133</v>
       </c>
       <c r="L47" s="25"/>
@@ -3185,57 +3201,101 @@
       <c r="AG47" s="25"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="A48" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="12"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="25"/>
+      <c r="K48" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
       <c r="N48" s="14"/>
       <c r="O48" s="13"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="A49" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="25"/>
+      <c r="K49" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
       <c r="N49" s="14"/>
-      <c r="O49" s="44"/>
+      <c r="O49" s="13"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="12"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="10"/>
+      <c r="K50" s="25"/>
       <c r="N50" s="14"/>
       <c r="O50" s="13"/>
       <c r="P50" s="15"/>
@@ -3244,17 +3304,21 @@
       <c r="S50" s="18"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="12"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="10"/>
+      <c r="K51" s="25"/>
       <c r="N51" s="14"/>
-      <c r="O51" s="13"/>
+      <c r="O51" s="44"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="17"/>
@@ -3372,7 +3436,7 @@
       <c r="I58" s="12"/>
       <c r="J58" s="13"/>
       <c r="K58" s="10"/>
-      <c r="N58" s="45"/>
+      <c r="N58" s="14"/>
       <c r="O58" s="13"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
@@ -3389,12 +3453,12 @@
       <c r="I59" s="12"/>
       <c r="J59" s="13"/>
       <c r="K59" s="10"/>
-      <c r="N59" s="46"/>
+      <c r="N59" s="14"/>
       <c r="O59" s="13"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="47"/>
+      <c r="S59" s="18"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10"/>
@@ -3406,7 +3470,7 @@
       <c r="I60" s="12"/>
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
-      <c r="N60" s="46"/>
+      <c r="N60" s="45"/>
       <c r="O60" s="13"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
@@ -3428,7 +3492,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="18"/>
+      <c r="S61" s="47"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3445,7 +3509,7 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="47"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10"/>
@@ -3458,7 +3522,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="10"/>
       <c r="N63" s="46"/>
-      <c r="O63" s="44"/>
+      <c r="O63" s="13"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
@@ -3475,7 +3539,7 @@
       <c r="J64" s="13"/>
       <c r="K64" s="10"/>
       <c r="N64" s="46"/>
-      <c r="O64" s="48"/>
+      <c r="O64" s="13"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
@@ -3492,7 +3556,7 @@
       <c r="J65" s="13"/>
       <c r="K65" s="10"/>
       <c r="N65" s="46"/>
-      <c r="O65" s="13"/>
+      <c r="O65" s="44"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
@@ -3508,8 +3572,8 @@
       <c r="I66" s="12"/>
       <c r="J66" s="13"/>
       <c r="K66" s="10"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="13"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="48"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
@@ -3525,7 +3589,7 @@
       <c r="I67" s="12"/>
       <c r="J67" s="13"/>
       <c r="K67" s="10"/>
-      <c r="N67" s="14"/>
+      <c r="N67" s="46"/>
       <c r="O67" s="13"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="16"/>
@@ -3547,7 +3611,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
-      <c r="S68" s="18"/>
+      <c r="S68" s="47"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="10"/>
@@ -3581,7 +3645,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="17"/>
-      <c r="S70" s="47"/>
+      <c r="S70" s="18"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="10"/>
@@ -3615,7 +3679,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
-      <c r="S72" s="18"/>
+      <c r="S72" s="47"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="10"/>
@@ -3679,7 +3743,7 @@
       <c r="J76" s="13"/>
       <c r="K76" s="10"/>
       <c r="N76" s="14"/>
-      <c r="O76" s="44"/>
+      <c r="O76" s="13"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="17"/>
@@ -3695,12 +3759,12 @@
       <c r="I77" s="12"/>
       <c r="J77" s="13"/>
       <c r="K77" s="10"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="48"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="13"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="47"/>
+      <c r="S77" s="18"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="10"/>
@@ -3713,7 +3777,7 @@
       <c r="J78" s="13"/>
       <c r="K78" s="10"/>
       <c r="N78" s="14"/>
-      <c r="O78" s="13"/>
+      <c r="O78" s="44"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="17"/>
@@ -3729,12 +3793,12 @@
       <c r="I79" s="12"/>
       <c r="J79" s="13"/>
       <c r="K79" s="10"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="13"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="48"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="17"/>
-      <c r="S79" s="18"/>
+      <c r="S79" s="47"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="10"/>
@@ -6626,8 +6690,40 @@
       <c r="R249" s="17"/>
       <c r="S249" s="18"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+      <c r="I250" s="12"/>
+      <c r="J250" s="13"/>
+      <c r="K250" s="10"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="13"/>
+      <c r="P250" s="15"/>
+      <c r="Q250" s="16"/>
+      <c r="R250" s="17"/>
+      <c r="S250" s="18"/>
+    </row>
+    <row r="251" ht="14.25" customHeight="1">
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="I251" s="12"/>
+      <c r="J251" s="13"/>
+      <c r="K251" s="10"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="13"/>
+      <c r="P251" s="15"/>
+      <c r="Q251" s="16"/>
+      <c r="R251" s="17"/>
+      <c r="S251" s="18"/>
+    </row>
     <row r="252" ht="15.75" customHeight="1"/>
     <row r="253" ht="15.75" customHeight="1"/>
     <row r="254" ht="15.75" customHeight="1"/>
@@ -7383,18 +7479,20 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A27:A33 A35:A36 A38:A41 A48:A49">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A28:A35 A37:A38 A40:A43 A50:A51">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25:A26 A41">
+  <conditionalFormatting sqref="A22 A25:A27 A43">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A26 A42:A47">
+  <conditionalFormatting sqref="A23:A27 A44:A49">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7409,7 +7507,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A39">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7449,7 +7547,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A36">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7479,7 +7577,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>1</v>
@@ -7513,13 +7611,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7547,13 +7645,13 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7581,13 +7679,13 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7615,13 +7713,13 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7649,13 +7747,13 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>140</v>
-      </c>
       <c r="C6" s="51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7683,13 +7781,13 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7717,13 +7815,13 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7751,13 +7849,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7785,10 +7883,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>70</v>
@@ -7819,13 +7917,13 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7852,14 +7950,14 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>143</v>
+      <c r="A12" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7886,14 +7984,14 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>141</v>
+      <c r="A13" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -7920,14 +8018,14 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>158</v>
+      <c r="A14" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -7954,14 +8052,14 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>161</v>
+      <c r="A15" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -7988,14 +8086,14 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>163</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>167</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -8022,14 +8120,14 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>165</v>
+      <c r="A17" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -8056,14 +8154,14 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>167</v>
+      <c r="A18" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -8090,14 +8188,14 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>169</v>
+      <c r="A19" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -8124,14 +8222,14 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>171</v>
+      <c r="A20" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -8158,14 +8256,14 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>173</v>
+      <c r="A21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -8192,14 +8290,14 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>175</v>
+      <c r="A22" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -8227,13 +8325,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -8261,13 +8359,13 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -8295,37 +8393,37 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
+        <v>186</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
@@ -14366,22 +14464,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -14409,20 +14507,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C2" s="57" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-19_10-42</v>
+        <v>2023-08-30_12-46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -296,9 +296,6 @@
     <t xml:space="preserve">string </t>
   </si>
   <si>
-    <t>full_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full Name </t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Last Name</t>
+  </si>
+  <si>
+    <t>full_name</t>
   </si>
   <si>
     <t>aka</t>
@@ -891,10 +891,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2363,13 +2363,13 @@
         <v>86</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>89</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="10"/>
@@ -2406,10 +2406,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>44</v>
@@ -2449,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>44</v>
@@ -2491,37 +2491,37 @@
       <c r="A30" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1</v>
+      <c r="B30" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -2531,39 +2531,39 @@
       <c r="AG30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -2572,39 +2572,39 @@
       <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -2613,41 +2613,41 @@
       <c r="AG32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -2656,41 +2656,41 @@
       <c r="AG33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="34" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -2699,39 +2699,39 @@
       <c r="AG34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
@@ -2740,22 +2740,22 @@
       <c r="AG35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34" t="b">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="33" t="b">
         <v>1</v>
       </c>
       <c r="I36" s="35"/>
@@ -2768,17 +2768,17 @@
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
@@ -2787,39 +2787,39 @@
       <c r="AG36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
@@ -2828,39 +2828,39 @@
       <c r="AG37" s="10"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
@@ -2875,7 +2875,7 @@
       <c r="B39" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D39" s="10"/>
@@ -2899,31 +2899,31 @@
       <c r="S39" s="18"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="41"/>
       <c r="U40" s="41"/>
       <c r="V40" s="41"/>
@@ -2934,31 +2934,31 @@
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
       <c r="T41" s="41"/>
       <c r="U41" s="41"/>
       <c r="V41" s="41"/>
@@ -2969,31 +2969,31 @@
       <c r="AA41" s="41"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
       <c r="T42" s="41"/>
       <c r="U42" s="41"/>
       <c r="V42" s="41"/>
@@ -7950,13 +7950,13 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D12" s="17"/>
@@ -7984,13 +7984,13 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="17"/>
@@ -8018,13 +8018,13 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="17"/>
@@ -8052,13 +8052,13 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>165</v>
       </c>
       <c r="D15" s="17"/>
@@ -8086,13 +8086,13 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>167</v>
       </c>
       <c r="D16" s="17"/>
@@ -8120,13 +8120,13 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>169</v>
       </c>
       <c r="D17" s="17"/>
@@ -8154,13 +8154,13 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="34" t="s">
         <v>171</v>
       </c>
       <c r="D18" s="17"/>
@@ -8188,13 +8188,13 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>173</v>
       </c>
       <c r="D19" s="17"/>
@@ -8222,13 +8222,13 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D20" s="17"/>
@@ -8256,13 +8256,13 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>177</v>
       </c>
       <c r="D21" s="17"/>
@@ -8290,13 +8290,13 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>179</v>
       </c>
       <c r="D22" s="17"/>
@@ -8401,29 +8401,29 @@
       <c r="C25" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="C2" s="57" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-08-30_12-46</v>
+        <v>2023-09-15_04-34</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>194</v>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -296,10 +296,13 @@
     <t xml:space="preserve">string </t>
   </si>
   <si>
-    <t xml:space="preserve">Full Name </t>
+    <t>Preferred Name</t>
   </si>
   <si>
     <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>This name will display in HealthJam</t>
   </si>
   <si>
     <t>name_f</t>
@@ -308,19 +311,19 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>Must match the client’s first name in TSIS</t>
+  </si>
+  <si>
     <t>name1</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>full_name</t>
+    <t>Must match the client’s surname in TSIS</t>
   </si>
   <si>
-    <t>aka</t>
-  </si>
-  <si>
-    <t>Also Known as:</t>
+    <t>full_name</t>
   </si>
   <si>
     <t>integer</t>
@@ -356,7 +359,7 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Current Cell number</t>
+    <t>Cell number</t>
   </si>
   <si>
     <t>Must be in the format +1 (876) xxx-xxxx</t>
@@ -368,7 +371,7 @@
     <t>type1</t>
   </si>
   <si>
-    <t>Type of current phone</t>
+    <t xml:space="preserve">Phone Type </t>
   </si>
   <si>
     <t>select_one network</t>
@@ -884,6 +887,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -892,9 +898,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2379,7 +2382,9 @@
       <c r="J27" s="13"/>
       <c r="K27" s="25"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="30" t="s">
+        <v>89</v>
+      </c>
       <c r="N27" s="14"/>
       <c r="O27" s="13"/>
       <c r="P27" s="15"/>
@@ -2406,10 +2411,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>44</v>
@@ -2422,7 +2427,9 @@
       <c r="J28" s="13"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="N28" s="14"/>
       <c r="O28" s="13"/>
       <c r="P28" s="15"/>
@@ -2445,14 +2452,14 @@
       <c r="AG28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>91</v>
+      <c r="B29" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>44</v>
@@ -2465,7 +2472,9 @@
       <c r="J29" s="13"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="N29" s="14"/>
       <c r="O29" s="13"/>
       <c r="P29" s="15"/>
@@ -2488,40 +2497,40 @@
       <c r="AG29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -2531,39 +2540,41 @@
       <c r="AG30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>94</v>
+      <c r="A31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -2572,39 +2583,41 @@
       <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="B32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -2613,41 +2626,41 @@
       <c r="AG32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="33" t="s">
+      <c r="A33" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -2656,41 +2669,39 @@
       <c r="AG33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="B34" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -2699,39 +2710,45 @@
       <c r="AG34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>86</v>
+      <c r="A35" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
@@ -2740,45 +2757,39 @@
       <c r="AG35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="A36" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
@@ -2787,39 +2798,39 @@
       <c r="AG36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="A37" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
@@ -2828,102 +2839,96 @@
       <c r="AG37" s="10"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
+      <c r="A38" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="25"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="25"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
+      <c r="A39" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
       <c r="T40" s="41"/>
       <c r="U40" s="41"/>
       <c r="V40" s="41"/>
@@ -2934,31 +2939,31 @@
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="A41" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
       <c r="T41" s="41"/>
       <c r="U41" s="41"/>
       <c r="V41" s="41"/>
@@ -2969,87 +2974,95 @@
       <c r="AA41" s="41"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
+      <c r="A42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="25"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
-      <c r="F43" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="25"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H43" s="25"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
       <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="14"/>
       <c r="O43" s="13"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>129</v>
+      <c r="B44" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="25"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="25"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
       <c r="N44" s="14"/>
@@ -3078,14 +3091,14 @@
         <v>46</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="10" t="s">
         <v>44</v>
       </c>
@@ -3117,25 +3130,23 @@
       <c r="AG45" s="25"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="19"/>
+      <c r="A46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="43"/>
+      <c r="K46" s="25" t="s">
+        <v>134</v>
+      </c>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
       <c r="N46" s="14"/>
@@ -3163,19 +3174,19 @@
       <c r="A47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>132</v>
+      <c r="B47" s="42" t="s">
+        <v>135</v>
       </c>
       <c r="C47" s="43"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="25" t="s">
-        <v>133</v>
+      <c r="K47" s="43" t="s">
+        <v>136</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -3205,18 +3216,18 @@
         <v>35</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="43"/>
+        <v>137</v>
+      </c>
+      <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="12"/>
       <c r="J48" s="13"/>
       <c r="K48" s="43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
@@ -3242,45 +3253,25 @@
       <c r="AG48" s="25"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="A49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="K49" s="25"/>
       <c r="N49" s="14"/>
       <c r="O49" s="13"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="25" t="s">
@@ -3297,28 +3288,24 @@
       <c r="J50" s="13"/>
       <c r="K50" s="25"/>
       <c r="N50" s="14"/>
-      <c r="O50" s="13"/>
+      <c r="O50" s="44"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="17"/>
       <c r="S50" s="18"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="I51" s="12"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="25"/>
+      <c r="K51" s="10"/>
       <c r="N51" s="14"/>
-      <c r="O51" s="44"/>
+      <c r="O51" s="13"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="17"/>
@@ -3453,7 +3440,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="13"/>
       <c r="K59" s="10"/>
-      <c r="N59" s="14"/>
+      <c r="N59" s="45"/>
       <c r="O59" s="13"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
@@ -3470,12 +3457,12 @@
       <c r="I60" s="12"/>
       <c r="J60" s="13"/>
       <c r="K60" s="10"/>
-      <c r="N60" s="45"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="13"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="47"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="10"/>
@@ -3492,7 +3479,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="47"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10"/>
@@ -3526,7 +3513,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="18"/>
+      <c r="S63" s="47"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
@@ -3539,11 +3526,11 @@
       <c r="J64" s="13"/>
       <c r="K64" s="10"/>
       <c r="N64" s="46"/>
-      <c r="O64" s="13"/>
+      <c r="O64" s="44"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
-      <c r="S64" s="47"/>
+      <c r="S64" s="18"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="10"/>
@@ -3556,11 +3543,11 @@
       <c r="J65" s="13"/>
       <c r="K65" s="10"/>
       <c r="N65" s="46"/>
-      <c r="O65" s="44"/>
+      <c r="O65" s="48"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
-      <c r="S65" s="18"/>
+      <c r="S65" s="47"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="10"/>
@@ -3573,11 +3560,11 @@
       <c r="J66" s="13"/>
       <c r="K66" s="10"/>
       <c r="N66" s="46"/>
-      <c r="O66" s="48"/>
+      <c r="O66" s="13"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="47"/>
+      <c r="S66" s="18"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="10"/>
@@ -3589,12 +3576,12 @@
       <c r="I67" s="12"/>
       <c r="J67" s="13"/>
       <c r="K67" s="10"/>
-      <c r="N67" s="46"/>
+      <c r="N67" s="14"/>
       <c r="O67" s="13"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
-      <c r="S67" s="18"/>
+      <c r="S67" s="47"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="10"/>
@@ -3611,7 +3598,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
-      <c r="S68" s="47"/>
+      <c r="S68" s="18"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="10"/>
@@ -3662,7 +3649,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="17"/>
-      <c r="S71" s="18"/>
+      <c r="S71" s="47"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="10"/>
@@ -3679,7 +3666,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
-      <c r="S72" s="47"/>
+      <c r="S72" s="18"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="10"/>
@@ -3760,7 +3747,7 @@
       <c r="J77" s="13"/>
       <c r="K77" s="10"/>
       <c r="N77" s="14"/>
-      <c r="O77" s="13"/>
+      <c r="O77" s="44"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="17"/>
@@ -3776,12 +3763,12 @@
       <c r="I78" s="12"/>
       <c r="J78" s="13"/>
       <c r="K78" s="10"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="44"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="48"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="17"/>
-      <c r="S78" s="18"/>
+      <c r="S78" s="47"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="10"/>
@@ -3793,12 +3780,12 @@
       <c r="I79" s="12"/>
       <c r="J79" s="13"/>
       <c r="K79" s="10"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="48"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="13"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="17"/>
-      <c r="S79" s="47"/>
+      <c r="S79" s="18"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="10"/>
@@ -6707,23 +6694,7 @@
       <c r="R250" s="17"/>
       <c r="S250" s="18"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
-      <c r="A251" s="10"/>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="I251" s="12"/>
-      <c r="J251" s="13"/>
-      <c r="K251" s="10"/>
-      <c r="N251" s="14"/>
-      <c r="O251" s="13"/>
-      <c r="P251" s="15"/>
-      <c r="Q251" s="16"/>
-      <c r="R251" s="17"/>
-      <c r="S251" s="18"/>
-    </row>
+    <row r="251" ht="15.75" customHeight="1"/>
     <row r="252" ht="15.75" customHeight="1"/>
     <row r="253" ht="15.75" customHeight="1"/>
     <row r="254" ht="15.75" customHeight="1"/>
@@ -7480,19 +7451,18 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A28:A35 A37:A38 A40:A43 A50:A51">
+  <conditionalFormatting sqref="A1 A10:A11 A13:A16 A28:A34 A36:A37 A39:A42 A49:A50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A25:A27 A43">
+  <conditionalFormatting sqref="A22 A25:A27 A42">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A27 A44:A49">
+  <conditionalFormatting sqref="A23:A27 A43:A48">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7507,7 +7477,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
+  <conditionalFormatting sqref="A38">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7547,7 +7517,7 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7577,7 +7547,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>1</v>
@@ -7611,13 +7581,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -7645,13 +7615,13 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
@@ -7679,13 +7649,13 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -7713,13 +7683,13 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -7747,13 +7717,13 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="10"/>
@@ -7781,13 +7751,13 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
@@ -7815,13 +7785,13 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
@@ -7849,13 +7819,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
@@ -7883,10 +7853,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>70</v>
@@ -7917,13 +7887,13 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="10"/>
@@ -7950,14 +7920,14 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
@@ -7984,14 +7954,14 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="A13" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>145</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10"/>
@@ -8018,14 +7988,14 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>162</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
@@ -8052,14 +8022,14 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>165</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
@@ -8086,14 +8056,14 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="A16" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>167</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10"/>
@@ -8120,14 +8090,14 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="A17" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>169</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
@@ -8154,14 +8124,14 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>171</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="10"/>
@@ -8188,14 +8158,14 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>173</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
@@ -8222,14 +8192,14 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="34" t="s">
+      <c r="A20" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>175</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="10"/>
@@ -8256,14 +8226,14 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="A21" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>177</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10"/>
@@ -8290,14 +8260,14 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="A22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>179</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10"/>
@@ -8325,13 +8295,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10"/>
@@ -8359,13 +8329,13 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10"/>
@@ -8393,37 +8363,37 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
+        <v>187</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
@@ -14464,22 +14434,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -14507,20 +14477,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="57" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-15_04-34</v>
+        <v>2024-11-21_09-31</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/config/forms/contact/person-edit.xlsx
+++ b/config/forms/contact/person-edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -2592,9 +2592,7 @@
       <c r="C32" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="34" t="s">
-        <v>44</v>
-      </c>
+      <c r="D32" s="34"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -14481,7 +14479,7 @@
       </c>
       <c r="C2" s="57" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-11-21_09-31</v>
+        <v>2024-11-21_22-46</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>195</v>
